--- a/Subresultados/50tries/xlsx/wGRASP/GACEPCHC.xlsx
+++ b/Subresultados/50tries/xlsx/wGRASP/GACEPCHC.xlsx
@@ -416,7 +416,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="7.95"/>
@@ -723,295 +723,295 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>171941</v>
+        <v>173580</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>55054.3</v>
+        <v>55818</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>173040</v>
+        <v>173467</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>216589</v>
+        <v>216371</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>220775</v>
+        <v>220682</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>48198.2</v>
+        <v>49111.3</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>5885.28</v>
+        <v>5954.92</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>40498.8</v>
+        <v>40925.5</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>226987</v>
+        <v>226878</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>17933.2</v>
+        <v>17910.6</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>12643.3</v>
+        <v>12601.4</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>51673.1</v>
+        <v>51702.8</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>2294.36</v>
+        <v>2416.58</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>45104.4</v>
+        <v>45245.8</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>59257.4</v>
+        <v>59355.8</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>27758.1</v>
+        <v>27826.1</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>9763.12</v>
+        <v>9524.5</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>14126.8</v>
+        <v>13978.7</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>27560.9</v>
+        <v>27946.1</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>75631.2</v>
+        <v>77345.4</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>67878.3</v>
+        <v>68969.9</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>96380.2</v>
+        <v>96700.7</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>22782.9</v>
+        <v>22342.8</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>97630.1</v>
+        <v>98141.7</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>38330.3</v>
+        <v>38624.1</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>9585.08</v>
+        <v>10230.4</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>36729.4</v>
+        <v>36826.3</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>38378.5</v>
+        <v>38803.4</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>53312.9</v>
+        <v>52507</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>130325</v>
+        <v>129807</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>188392</v>
+        <v>188431</v>
       </c>
       <c r="AG2" s="0" t="n">
-        <v>74821</v>
+        <v>75493.4</v>
       </c>
       <c r="AH2" s="0" t="n">
-        <v>41929.5</v>
+        <v>42244.5</v>
       </c>
       <c r="AI2" s="0" t="n">
-        <v>53198.2</v>
+        <v>52791.2</v>
       </c>
       <c r="AJ2" s="0" t="n">
-        <v>16871.1</v>
+        <v>17309</v>
       </c>
       <c r="AK2" s="0" t="n">
-        <v>129562</v>
+        <v>130375</v>
       </c>
       <c r="AL2" s="0" t="n">
-        <v>90907</v>
+        <v>92026.4</v>
       </c>
       <c r="AM2" s="0" t="n">
-        <v>11933.6</v>
+        <v>11807.6</v>
       </c>
       <c r="AN2" s="0" t="n">
-        <v>82547.2</v>
+        <v>83912.3</v>
       </c>
       <c r="AO2" s="0" t="n">
-        <v>243440</v>
+        <v>248973</v>
       </c>
       <c r="AP2" s="0" t="n">
-        <v>912975</v>
+        <v>911677</v>
       </c>
       <c r="AQ2" s="0" t="n">
-        <v>185338</v>
+        <v>189038</v>
       </c>
       <c r="AR2" s="0" t="n">
-        <v>15547.2</v>
+        <v>15380.6</v>
       </c>
       <c r="AS2" s="0" t="n">
-        <v>58681.2</v>
+        <v>59096.6</v>
       </c>
       <c r="AT2" s="0" t="n">
-        <v>698568</v>
+        <v>700329</v>
       </c>
       <c r="AU2" s="0" t="n">
-        <v>24429.6</v>
+        <v>24910.7</v>
       </c>
       <c r="AV2" s="0" t="n">
-        <v>586918</v>
+        <v>587896</v>
       </c>
       <c r="AW2" s="0" t="n">
-        <v>696421</v>
+        <v>702741</v>
       </c>
       <c r="AX2" s="0" t="n">
-        <v>516538</v>
+        <v>513902</v>
       </c>
       <c r="AY2" s="0" t="n">
-        <v>29610.4</v>
+        <v>28507.1</v>
       </c>
       <c r="AZ2" s="0" t="n">
-        <v>179168</v>
+        <v>182200</v>
       </c>
       <c r="BA2" s="0" t="n">
-        <v>229609</v>
+        <v>229901</v>
       </c>
       <c r="BB2" s="0" t="n">
-        <v>203601</v>
+        <v>203747</v>
       </c>
       <c r="BC2" s="0" t="n">
-        <v>162233</v>
+        <v>160660</v>
       </c>
       <c r="BD2" s="0" t="n">
-        <v>53234.3</v>
+        <v>53327</v>
       </c>
       <c r="BE2" s="0" t="n">
-        <v>36118.9</v>
+        <v>36277.5</v>
       </c>
       <c r="BF2" s="0" t="n">
-        <v>113496</v>
+        <v>111157</v>
       </c>
       <c r="BG2" s="0" t="n">
-        <v>28568.5</v>
+        <v>29695.8</v>
       </c>
       <c r="BH2" s="0" t="n">
-        <v>217867</v>
+        <v>220075</v>
       </c>
       <c r="BI2" s="0" t="n">
-        <v>310801</v>
+        <v>309279</v>
       </c>
       <c r="BJ2" s="0" t="n">
-        <v>151794</v>
+        <v>149938</v>
       </c>
       <c r="BK2" s="0" t="n">
-        <v>156021</v>
+        <v>156648</v>
       </c>
       <c r="BL2" s="0" t="n">
-        <v>159684</v>
+        <v>161701</v>
       </c>
       <c r="BM2" s="0" t="n">
-        <v>468469</v>
+        <v>468382</v>
       </c>
       <c r="BN2" s="0" t="n">
-        <v>398269</v>
+        <v>397494</v>
       </c>
       <c r="BO2" s="0" t="n">
-        <v>158337</v>
+        <v>153720</v>
       </c>
       <c r="BP2" s="0" t="n">
-        <v>251865</v>
+        <v>252293</v>
       </c>
       <c r="BQ2" s="0" t="n">
-        <v>61408.2</v>
+        <v>61431.7</v>
       </c>
       <c r="BR2" s="0" t="n">
-        <v>87654.2</v>
+        <v>84145.1</v>
       </c>
       <c r="BS2" s="0" t="n">
-        <v>339731</v>
+        <v>341781</v>
       </c>
       <c r="BT2" s="0" t="n">
-        <v>200540</v>
+        <v>202511</v>
       </c>
       <c r="BU2" s="0" t="n">
-        <v>32106.5</v>
+        <v>33220.7</v>
       </c>
       <c r="BV2" s="0" t="n">
-        <v>80366.4</v>
+        <v>78262.5</v>
       </c>
       <c r="BW2" s="0" t="n">
-        <v>82406.3</v>
+        <v>80299.9</v>
       </c>
       <c r="BX2" s="0" t="n">
-        <v>147514</v>
+        <v>145291</v>
       </c>
       <c r="BY2" s="0" t="n">
-        <v>179600</v>
+        <v>176919</v>
       </c>
       <c r="BZ2" s="0" t="n">
-        <v>534307</v>
+        <v>536437</v>
       </c>
       <c r="CA2" s="0" t="n">
-        <v>428771</v>
+        <v>428451</v>
       </c>
       <c r="CB2" s="0" t="n">
-        <v>304338</v>
+        <v>304708</v>
       </c>
       <c r="CC2" s="0" t="n">
-        <v>12043.8</v>
+        <v>12690.7</v>
       </c>
       <c r="CD2" s="0" t="n">
-        <v>207187</v>
+        <v>206708</v>
       </c>
       <c r="CE2" s="0" t="n">
-        <v>383071</v>
+        <v>382977</v>
       </c>
       <c r="CF2" s="0" t="n">
-        <v>7738.48</v>
+        <v>7869.82</v>
       </c>
       <c r="CG2" s="0" t="n">
-        <v>185713</v>
+        <v>188413</v>
       </c>
       <c r="CH2" s="0" t="n">
-        <v>441668</v>
+        <v>442448</v>
       </c>
       <c r="CI2" s="0" t="n">
-        <v>4629.68</v>
+        <v>4235.92</v>
       </c>
       <c r="CJ2" s="0" t="n">
-        <v>166610</v>
+        <v>171537</v>
       </c>
       <c r="CK2" s="0" t="n">
-        <v>920159</v>
+        <v>919935</v>
       </c>
       <c r="CL2" s="0" t="n">
-        <v>352902</v>
+        <v>359261</v>
       </c>
       <c r="CM2" s="0" t="n">
-        <v>62521.8</v>
+        <v>60152.6</v>
       </c>
       <c r="CN2" s="0" t="n">
-        <v>772816</v>
+        <v>770912</v>
       </c>
       <c r="CO2" s="0" t="n">
-        <v>189470</v>
+        <v>187286</v>
       </c>
       <c r="CP2" s="0" t="n">
-        <v>582685</v>
+        <v>589974</v>
       </c>
       <c r="CQ2" s="0" t="n">
-        <v>588398</v>
+        <v>598187</v>
       </c>
       <c r="CR2" s="0" t="n">
-        <v>22162.7</v>
+        <v>22331</v>
       </c>
       <c r="CS2" s="0" t="n">
-        <v>613427</v>
+        <v>618014</v>
       </c>
       <c r="CT2" s="0" t="n">
-        <v>622858</v>
+        <v>612877</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,295 +1019,295 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>176222</v>
+        <v>179082</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>60254.9</v>
+        <v>60386.2</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>177152</v>
+        <v>177986</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>216938</v>
+        <v>217093</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>221604</v>
+        <v>221800</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>52063.3</v>
+        <v>53161.9</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>7512.1</v>
+        <v>7449.54</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>43573.9</v>
+        <v>44060.9</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>227423</v>
+        <v>227751</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>18615.4</v>
+        <v>18634.4</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>13555.5</v>
+        <v>13514</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>52042.2</v>
+        <v>52219.9</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>2652.26</v>
+        <v>2759.78</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>45751.8</v>
+        <v>46145.4</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>59400.3</v>
+        <v>59509.1</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>29136.2</v>
+        <v>29376.2</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>10574.7</v>
+        <v>10374.3</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>15025.5</v>
+        <v>15128.6</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>28399.6</v>
+        <v>29048.9</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>78150.5</v>
+        <v>78705.8</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>70353</v>
+        <v>72028</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>97445.6</v>
+        <v>98365.2</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>24762.4</v>
+        <v>24659.3</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>98857.1</v>
+        <v>99400.2</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>41947.9</v>
+        <v>41624.1</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>10760.3</v>
+        <v>11400.3</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>39223.8</v>
+        <v>39102.9</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>41009.1</v>
+        <v>41298.1</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>55750.1</v>
+        <v>55982.4</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>132297</v>
+        <v>133354</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>188414</v>
+        <v>188423</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>78317</v>
+        <v>80127.5</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>44624.3</v>
+        <v>45215.7</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>55629.8</v>
+        <v>57357.9</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <v>18772.2</v>
+        <v>19220.2</v>
       </c>
       <c r="AK3" s="0" t="n">
-        <v>132271</v>
+        <v>133481</v>
       </c>
       <c r="AL3" s="0" t="n">
-        <v>93893.3</v>
+        <v>96088.3</v>
       </c>
       <c r="AM3" s="0" t="n">
-        <v>13060.1</v>
+        <v>13134.5</v>
       </c>
       <c r="AN3" s="0" t="n">
-        <v>85868.5</v>
+        <v>88752.6</v>
       </c>
       <c r="AO3" s="0" t="n">
-        <v>263871</v>
+        <v>269894</v>
       </c>
       <c r="AP3" s="0" t="n">
-        <v>914837</v>
+        <v>914336</v>
       </c>
       <c r="AQ3" s="0" t="n">
-        <v>203435</v>
+        <v>204890</v>
       </c>
       <c r="AR3" s="0" t="n">
-        <v>17799.7</v>
+        <v>18554.8</v>
       </c>
       <c r="AS3" s="0" t="n">
-        <v>66816.3</v>
+        <v>66750.3</v>
       </c>
       <c r="AT3" s="0" t="n">
-        <v>712502</v>
+        <v>718764</v>
       </c>
       <c r="AU3" s="0" t="n">
-        <v>27695.7</v>
+        <v>27553</v>
       </c>
       <c r="AV3" s="0" t="n">
-        <v>604949</v>
+        <v>608180</v>
       </c>
       <c r="AW3" s="0" t="n">
-        <v>712282</v>
+        <v>719039</v>
       </c>
       <c r="AX3" s="0" t="n">
-        <v>535741</v>
+        <v>532983</v>
       </c>
       <c r="AY3" s="0" t="n">
-        <v>32063.5</v>
+        <v>31081.1</v>
       </c>
       <c r="AZ3" s="0" t="n">
-        <v>183651</v>
+        <v>185068</v>
       </c>
       <c r="BA3" s="0" t="n">
-        <v>230449</v>
+        <v>230830</v>
       </c>
       <c r="BB3" s="0" t="n">
-        <v>205333</v>
+        <v>205297</v>
       </c>
       <c r="BC3" s="0" t="n">
-        <v>165037</v>
+        <v>164063</v>
       </c>
       <c r="BD3" s="0" t="n">
-        <v>57406.6</v>
+        <v>56828.7</v>
       </c>
       <c r="BE3" s="0" t="n">
-        <v>39344.7</v>
+        <v>39039.4</v>
       </c>
       <c r="BF3" s="0" t="n">
-        <v>118439</v>
+        <v>117250</v>
       </c>
       <c r="BG3" s="0" t="n">
-        <v>32199</v>
+        <v>32546.7</v>
       </c>
       <c r="BH3" s="0" t="n">
-        <v>226734</v>
+        <v>227535</v>
       </c>
       <c r="BI3" s="0" t="n">
-        <v>321707</v>
+        <v>321710</v>
       </c>
       <c r="BJ3" s="0" t="n">
-        <v>157010</v>
+        <v>157287</v>
       </c>
       <c r="BK3" s="0" t="n">
-        <v>164366</v>
+        <v>166111</v>
       </c>
       <c r="BL3" s="0" t="n">
-        <v>167388</v>
+        <v>168853</v>
       </c>
       <c r="BM3" s="0" t="n">
-        <v>468878</v>
+        <v>468914</v>
       </c>
       <c r="BN3" s="0" t="n">
-        <v>400598</v>
+        <v>400595</v>
       </c>
       <c r="BO3" s="0" t="n">
-        <v>165845</v>
+        <v>163314</v>
       </c>
       <c r="BP3" s="0" t="n">
-        <v>261949</v>
+        <v>262479</v>
       </c>
       <c r="BQ3" s="0" t="n">
-        <v>67480</v>
+        <v>67552.5</v>
       </c>
       <c r="BR3" s="0" t="n">
-        <v>94695.3</v>
+        <v>91260.6</v>
       </c>
       <c r="BS3" s="0" t="n">
-        <v>355778</v>
+        <v>363886</v>
       </c>
       <c r="BT3" s="0" t="n">
-        <v>210427</v>
+        <v>210986</v>
       </c>
       <c r="BU3" s="0" t="n">
-        <v>35554.2</v>
+        <v>36786.4</v>
       </c>
       <c r="BV3" s="0" t="n">
-        <v>86258.9</v>
+        <v>88430.5</v>
       </c>
       <c r="BW3" s="0" t="n">
-        <v>88868.6</v>
+        <v>88692.4</v>
       </c>
       <c r="BX3" s="0" t="n">
-        <v>157006</v>
+        <v>153938</v>
       </c>
       <c r="BY3" s="0" t="n">
-        <v>191585</v>
+        <v>189091</v>
       </c>
       <c r="BZ3" s="0" t="n">
-        <v>544517</v>
+        <v>549134</v>
       </c>
       <c r="CA3" s="0" t="n">
-        <v>443178</v>
+        <v>443224</v>
       </c>
       <c r="CB3" s="0" t="n">
-        <v>315816</v>
+        <v>314693</v>
       </c>
       <c r="CC3" s="0" t="n">
-        <v>14460.3</v>
+        <v>14978</v>
       </c>
       <c r="CD3" s="0" t="n">
-        <v>215374</v>
+        <v>214367</v>
       </c>
       <c r="CE3" s="0" t="n">
-        <v>392983</v>
+        <v>396020</v>
       </c>
       <c r="CF3" s="0" t="n">
-        <v>9202.9</v>
+        <v>8659.7</v>
       </c>
       <c r="CG3" s="0" t="n">
-        <v>195098</v>
+        <v>197365</v>
       </c>
       <c r="CH3" s="0" t="n">
-        <v>444681</v>
+        <v>446210</v>
       </c>
       <c r="CI3" s="0" t="n">
-        <v>6007.78</v>
+        <v>5646.76</v>
       </c>
       <c r="CJ3" s="0" t="n">
-        <v>177728</v>
+        <v>180237</v>
       </c>
       <c r="CK3" s="0" t="n">
-        <v>923749</v>
+        <v>924467</v>
       </c>
       <c r="CL3" s="0" t="n">
-        <v>373667</v>
+        <v>374929</v>
       </c>
       <c r="CM3" s="0" t="n">
-        <v>63676.8</v>
+        <v>63747.2</v>
       </c>
       <c r="CN3" s="0" t="n">
-        <v>784312</v>
+        <v>789187</v>
       </c>
       <c r="CO3" s="0" t="n">
-        <v>207032</v>
+        <v>204512</v>
       </c>
       <c r="CP3" s="0" t="n">
-        <v>601923</v>
+        <v>608792</v>
       </c>
       <c r="CQ3" s="0" t="n">
-        <v>604782</v>
+        <v>611314</v>
       </c>
       <c r="CR3" s="0" t="n">
-        <v>24497.4</v>
+        <v>24850.8</v>
       </c>
       <c r="CS3" s="0" t="n">
-        <v>630704</v>
+        <v>636902</v>
       </c>
       <c r="CT3" s="0" t="n">
-        <v>640057</v>
+        <v>634277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,295 +1315,295 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>178655</v>
+        <v>180742</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>61708.6</v>
+        <v>63086.5</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>178016</v>
+        <v>179392</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>217375</v>
+        <v>217338</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>222130</v>
+        <v>222207</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>54384.4</v>
+        <v>55375.7</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>7921.92</v>
+        <v>7975.86</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>45305.7</v>
+        <v>45566.9</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>227736</v>
+        <v>228215</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>18956.9</v>
+        <v>19367.4</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>14021</v>
+        <v>14264.5</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>52235.1</v>
+        <v>52458.8</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2851.34</v>
+        <v>2929.08</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>46170.4</v>
+        <v>46709.4</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>59567.4</v>
+        <v>59668.5</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>29895.9</v>
+        <v>29814</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>10830.4</v>
+        <v>11211.2</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>15521.3</v>
+        <v>15811.8</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>29152.9</v>
+        <v>29683.4</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>79570.7</v>
+        <v>80419.1</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>72211.5</v>
+        <v>73532.2</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>97897.1</v>
+        <v>98806</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>26097.1</v>
+        <v>25704.6</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>99181.5</v>
+        <v>99916</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>42877.4</v>
+        <v>43499.8</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>11447.1</v>
+        <v>12048.5</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>40034.7</v>
+        <v>40587.3</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>42175.2</v>
+        <v>42485</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>56990.8</v>
+        <v>57271.2</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>133326</v>
+        <v>134630</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>188453</v>
+        <v>188442</v>
       </c>
       <c r="AG4" s="0" t="n">
-        <v>80430.3</v>
+        <v>80823.1</v>
       </c>
       <c r="AH4" s="0" t="n">
-        <v>46198.6</v>
+        <v>46920</v>
       </c>
       <c r="AI4" s="0" t="n">
-        <v>57654.7</v>
+        <v>58552</v>
       </c>
       <c r="AJ4" s="0" t="n">
-        <v>19753.8</v>
+        <v>19783.1</v>
       </c>
       <c r="AK4" s="0" t="n">
-        <v>133902</v>
+        <v>135693</v>
       </c>
       <c r="AL4" s="0" t="n">
-        <v>96280.1</v>
+        <v>98383.2</v>
       </c>
       <c r="AM4" s="0" t="n">
-        <v>13716.7</v>
+        <v>14001.6</v>
       </c>
       <c r="AN4" s="0" t="n">
-        <v>88075.8</v>
+        <v>90742</v>
       </c>
       <c r="AO4" s="0" t="n">
-        <v>271291</v>
+        <v>276948</v>
       </c>
       <c r="AP4" s="0" t="n">
-        <v>916831</v>
+        <v>915622</v>
       </c>
       <c r="AQ4" s="0" t="n">
-        <v>210840</v>
+        <v>215656</v>
       </c>
       <c r="AR4" s="0" t="n">
-        <v>19494.1</v>
+        <v>20144.8</v>
       </c>
       <c r="AS4" s="0" t="n">
-        <v>68880</v>
+        <v>67980.2</v>
       </c>
       <c r="AT4" s="0" t="n">
-        <v>719532</v>
+        <v>721246</v>
       </c>
       <c r="AU4" s="0" t="n">
-        <v>28303.6</v>
+        <v>29626</v>
       </c>
       <c r="AV4" s="0" t="n">
-        <v>612145</v>
+        <v>617074</v>
       </c>
       <c r="AW4" s="0" t="n">
-        <v>717077</v>
+        <v>723955</v>
       </c>
       <c r="AX4" s="0" t="n">
-        <v>543691</v>
+        <v>546521</v>
       </c>
       <c r="AY4" s="0" t="n">
-        <v>33031.3</v>
+        <v>32868.8</v>
       </c>
       <c r="AZ4" s="0" t="n">
-        <v>185738</v>
+        <v>186931</v>
       </c>
       <c r="BA4" s="0" t="n">
-        <v>230715</v>
+        <v>231093</v>
       </c>
       <c r="BB4" s="0" t="n">
-        <v>206106</v>
+        <v>206114</v>
       </c>
       <c r="BC4" s="0" t="n">
-        <v>166337</v>
+        <v>167588</v>
       </c>
       <c r="BD4" s="0" t="n">
-        <v>57724.8</v>
+        <v>59348.4</v>
       </c>
       <c r="BE4" s="0" t="n">
-        <v>40822.7</v>
+        <v>40640.5</v>
       </c>
       <c r="BF4" s="0" t="n">
-        <v>120267</v>
+        <v>120091</v>
       </c>
       <c r="BG4" s="0" t="n">
-        <v>32879.5</v>
+        <v>33356.7</v>
       </c>
       <c r="BH4" s="0" t="n">
-        <v>231660</v>
+        <v>234089</v>
       </c>
       <c r="BI4" s="0" t="n">
-        <v>326298</v>
+        <v>325891</v>
       </c>
       <c r="BJ4" s="0" t="n">
-        <v>160374</v>
+        <v>161185</v>
       </c>
       <c r="BK4" s="0" t="n">
-        <v>167654</v>
+        <v>170336</v>
       </c>
       <c r="BL4" s="0" t="n">
-        <v>171811</v>
+        <v>172110</v>
       </c>
       <c r="BM4" s="0" t="n">
-        <v>469672</v>
+        <v>469103</v>
       </c>
       <c r="BN4" s="0" t="n">
-        <v>401807</v>
+        <v>401608</v>
       </c>
       <c r="BO4" s="0" t="n">
-        <v>169110</v>
+        <v>168273</v>
       </c>
       <c r="BP4" s="0" t="n">
-        <v>265932</v>
+        <v>266621</v>
       </c>
       <c r="BQ4" s="0" t="n">
-        <v>69719.6</v>
+        <v>70515.8</v>
       </c>
       <c r="BR4" s="0" t="n">
-        <v>96707.3</v>
+        <v>96545.3</v>
       </c>
       <c r="BS4" s="0" t="n">
-        <v>362229</v>
+        <v>370961</v>
       </c>
       <c r="BT4" s="0" t="n">
-        <v>216089</v>
+        <v>215886</v>
       </c>
       <c r="BU4" s="0" t="n">
-        <v>37580.2</v>
+        <v>38552.9</v>
       </c>
       <c r="BV4" s="0" t="n">
-        <v>89097.4</v>
+        <v>91446.8</v>
       </c>
       <c r="BW4" s="0" t="n">
-        <v>91466.4</v>
+        <v>93270.7</v>
       </c>
       <c r="BX4" s="0" t="n">
-        <v>161502</v>
+        <v>161495</v>
       </c>
       <c r="BY4" s="0" t="n">
-        <v>194384</v>
+        <v>197907</v>
       </c>
       <c r="BZ4" s="0" t="n">
-        <v>549953</v>
+        <v>554401</v>
       </c>
       <c r="CA4" s="0" t="n">
-        <v>448970</v>
+        <v>450112</v>
       </c>
       <c r="CB4" s="0" t="n">
-        <v>319486</v>
+        <v>320822</v>
       </c>
       <c r="CC4" s="0" t="n">
-        <v>15760.3</v>
+        <v>16467.4</v>
       </c>
       <c r="CD4" s="0" t="n">
-        <v>218676</v>
+        <v>219061</v>
       </c>
       <c r="CE4" s="0" t="n">
-        <v>394256</v>
+        <v>399707</v>
       </c>
       <c r="CF4" s="0" t="n">
-        <v>9827.86</v>
+        <v>9409.74</v>
       </c>
       <c r="CG4" s="0" t="n">
-        <v>198020</v>
+        <v>200679</v>
       </c>
       <c r="CH4" s="0" t="n">
-        <v>445225</v>
+        <v>448555</v>
       </c>
       <c r="CI4" s="0" t="n">
-        <v>6498.96</v>
+        <v>6261.96</v>
       </c>
       <c r="CJ4" s="0" t="n">
-        <v>182732</v>
+        <v>185189</v>
       </c>
       <c r="CK4" s="0" t="n">
-        <v>926117</v>
+        <v>926000</v>
       </c>
       <c r="CL4" s="0" t="n">
-        <v>380916</v>
+        <v>382643</v>
       </c>
       <c r="CM4" s="0" t="n">
-        <v>66645.9</v>
+        <v>66345.6</v>
       </c>
       <c r="CN4" s="0" t="n">
-        <v>791407</v>
+        <v>794145</v>
       </c>
       <c r="CO4" s="0" t="n">
-        <v>212133</v>
+        <v>210753</v>
       </c>
       <c r="CP4" s="0" t="n">
-        <v>612147</v>
+        <v>615994</v>
       </c>
       <c r="CQ4" s="0" t="n">
-        <v>615435</v>
+        <v>622778</v>
       </c>
       <c r="CR4" s="0" t="n">
-        <v>25958.8</v>
+        <v>26739.8</v>
       </c>
       <c r="CS4" s="0" t="n">
-        <v>644686</v>
+        <v>648614</v>
       </c>
       <c r="CT4" s="0" t="n">
-        <v>646953</v>
+        <v>647173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,295 +1611,295 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>180785</v>
+        <v>183395</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>66091.3</v>
+        <v>66851.8</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>179726</v>
+        <v>181686</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>218170</v>
+        <v>218009</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>222696</v>
+        <v>223073</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>57966.1</v>
+        <v>58353</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>8683.02</v>
+        <v>8700.04</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>48414.3</v>
+        <v>49605.7</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>228479</v>
+        <v>228759</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>19922.4</v>
+        <v>20451.3</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>14652</v>
+        <v>15342.9</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>52621.2</v>
+        <v>52655.6</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3057.34</v>
+        <v>3156.34</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>46676.8</v>
+        <v>47405.6</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>59613.4</v>
+        <v>59653.8</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>31065</v>
+        <v>31201.3</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>11562.8</v>
+        <v>11729.4</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>16484.6</v>
+        <v>16858.9</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>30064.1</v>
+        <v>31044.1</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>81400.4</v>
+        <v>82399.9</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>74253.2</v>
+        <v>76204.6</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>98678.2</v>
+        <v>100131</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>27428.8</v>
+        <v>27652</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>99707.3</v>
+        <v>100619</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>45138.7</v>
+        <v>45834.1</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>12259.7</v>
+        <v>12791.4</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>42358.9</v>
+        <v>43024.3</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>43983.7</v>
+        <v>44594.9</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>58888.7</v>
+        <v>59322.6</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>135135</v>
+        <v>136406</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>188495</v>
+        <v>188474</v>
       </c>
       <c r="AG5" s="0" t="n">
-        <v>82724.1</v>
+        <v>84092.5</v>
       </c>
       <c r="AH5" s="0" t="n">
-        <v>48059.5</v>
+        <v>49579.5</v>
       </c>
       <c r="AI5" s="0" t="n">
-        <v>61086.7</v>
+        <v>61650.5</v>
       </c>
       <c r="AJ5" s="0" t="n">
-        <v>21472.7</v>
+        <v>21673</v>
       </c>
       <c r="AK5" s="0" t="n">
-        <v>136095</v>
+        <v>137735</v>
       </c>
       <c r="AL5" s="0" t="n">
-        <v>98851.7</v>
+        <v>100522</v>
       </c>
       <c r="AM5" s="0" t="n">
-        <v>14958.6</v>
+        <v>15181.8</v>
       </c>
       <c r="AN5" s="0" t="n">
-        <v>91162.5</v>
+        <v>93564.5</v>
       </c>
       <c r="AO5" s="0" t="n">
-        <v>284040</v>
+        <v>288094</v>
       </c>
       <c r="AP5" s="0" t="n">
-        <v>918283</v>
+        <v>918590</v>
       </c>
       <c r="AQ5" s="0" t="n">
-        <v>220721</v>
+        <v>227632</v>
       </c>
       <c r="AR5" s="0" t="n">
-        <v>21823.8</v>
+        <v>22659.3</v>
       </c>
       <c r="AS5" s="0" t="n">
-        <v>72825.3</v>
+        <v>72782.8</v>
       </c>
       <c r="AT5" s="0" t="n">
-        <v>728213</v>
+        <v>732135</v>
       </c>
       <c r="AU5" s="0" t="n">
-        <v>31237.7</v>
+        <v>32164.5</v>
       </c>
       <c r="AV5" s="0" t="n">
-        <v>625509</v>
+        <v>631368</v>
       </c>
       <c r="AW5" s="0" t="n">
-        <v>727127</v>
+        <v>734766</v>
       </c>
       <c r="AX5" s="0" t="n">
-        <v>559636</v>
+        <v>560042</v>
       </c>
       <c r="AY5" s="0" t="n">
-        <v>34259.9</v>
+        <v>34902</v>
       </c>
       <c r="AZ5" s="0" t="n">
-        <v>188201</v>
+        <v>189530</v>
       </c>
       <c r="BA5" s="0" t="n">
-        <v>231328</v>
+        <v>231773</v>
       </c>
       <c r="BB5" s="0" t="n">
-        <v>206868</v>
+        <v>207044</v>
       </c>
       <c r="BC5" s="0" t="n">
-        <v>169547</v>
+        <v>170936</v>
       </c>
       <c r="BD5" s="0" t="n">
-        <v>60124.8</v>
+        <v>61154.8</v>
       </c>
       <c r="BE5" s="0" t="n">
-        <v>42623</v>
+        <v>42942.7</v>
       </c>
       <c r="BF5" s="0" t="n">
-        <v>123421</v>
+        <v>124821</v>
       </c>
       <c r="BG5" s="0" t="n">
-        <v>35172.3</v>
+        <v>35456.4</v>
       </c>
       <c r="BH5" s="0" t="n">
-        <v>235311</v>
+        <v>241087</v>
       </c>
       <c r="BI5" s="0" t="n">
-        <v>332679</v>
+        <v>333083</v>
       </c>
       <c r="BJ5" s="0" t="n">
-        <v>164509</v>
+        <v>166939</v>
       </c>
       <c r="BK5" s="0" t="n">
-        <v>174352</v>
+        <v>177764</v>
       </c>
       <c r="BL5" s="0" t="n">
-        <v>179022</v>
+        <v>182072</v>
       </c>
       <c r="BM5" s="0" t="n">
-        <v>470418</v>
+        <v>470465</v>
       </c>
       <c r="BN5" s="0" t="n">
-        <v>403525</v>
+        <v>404413</v>
       </c>
       <c r="BO5" s="0" t="n">
-        <v>173820</v>
+        <v>176171</v>
       </c>
       <c r="BP5" s="0" t="n">
-        <v>271647</v>
+        <v>274676</v>
       </c>
       <c r="BQ5" s="0" t="n">
-        <v>73936.8</v>
+        <v>74027.2</v>
       </c>
       <c r="BR5" s="0" t="n">
-        <v>102135</v>
+        <v>103249</v>
       </c>
       <c r="BS5" s="0" t="n">
-        <v>374286</v>
+        <v>383758</v>
       </c>
       <c r="BT5" s="0" t="n">
-        <v>222958</v>
+        <v>224964</v>
       </c>
       <c r="BU5" s="0" t="n">
-        <v>40119.7</v>
+        <v>42308.1</v>
       </c>
       <c r="BV5" s="0" t="n">
-        <v>94206.1</v>
+        <v>96771.6</v>
       </c>
       <c r="BW5" s="0" t="n">
-        <v>97692.1</v>
+        <v>100163</v>
       </c>
       <c r="BX5" s="0" t="n">
-        <v>168534</v>
+        <v>170443</v>
       </c>
       <c r="BY5" s="0" t="n">
-        <v>203705</v>
+        <v>206257</v>
       </c>
       <c r="BZ5" s="0" t="n">
-        <v>554954</v>
+        <v>560484</v>
       </c>
       <c r="CA5" s="0" t="n">
-        <v>459329</v>
+        <v>462999</v>
       </c>
       <c r="CB5" s="0" t="n">
-        <v>325001</v>
+        <v>327584</v>
       </c>
       <c r="CC5" s="0" t="n">
-        <v>18019.1</v>
+        <v>18696.3</v>
       </c>
       <c r="CD5" s="0" t="n">
-        <v>223633</v>
+        <v>225336</v>
       </c>
       <c r="CE5" s="0" t="n">
-        <v>401078</v>
+        <v>405094</v>
       </c>
       <c r="CF5" s="0" t="n">
-        <v>10492.8</v>
+        <v>10305.2</v>
       </c>
       <c r="CG5" s="0" t="n">
-        <v>204391</v>
+        <v>207869</v>
       </c>
       <c r="CH5" s="0" t="n">
-        <v>447940</v>
+        <v>450499</v>
       </c>
       <c r="CI5" s="0" t="n">
-        <v>7340.22</v>
+        <v>6986.32</v>
       </c>
       <c r="CJ5" s="0" t="n">
-        <v>187219</v>
+        <v>192140</v>
       </c>
       <c r="CK5" s="0" t="n">
-        <v>931838</v>
+        <v>929612</v>
       </c>
       <c r="CL5" s="0" t="n">
-        <v>394716</v>
+        <v>393690</v>
       </c>
       <c r="CM5" s="0" t="n">
-        <v>71515.9</v>
+        <v>70811.7</v>
       </c>
       <c r="CN5" s="0" t="n">
-        <v>801630</v>
+        <v>804719</v>
       </c>
       <c r="CO5" s="0" t="n">
-        <v>223455</v>
+        <v>221689</v>
       </c>
       <c r="CP5" s="0" t="n">
-        <v>623184</v>
+        <v>628329</v>
       </c>
       <c r="CQ5" s="0" t="n">
-        <v>627825</v>
+        <v>638936</v>
       </c>
       <c r="CR5" s="0" t="n">
-        <v>28564.8</v>
+        <v>29222.4</v>
       </c>
       <c r="CS5" s="0" t="n">
-        <v>659742</v>
+        <v>667459</v>
       </c>
       <c r="CT5" s="0" t="n">
-        <v>659278</v>
+        <v>665523</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,295 +1907,295 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>183793</v>
+        <v>186232</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>72131.7</v>
+        <v>72519.9</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>181939</v>
+        <v>183954</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>219184</v>
+        <v>219464</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>224050</v>
+        <v>223861</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>63510.5</v>
+        <v>64793.7</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>9722.48</v>
+        <v>9728.32</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>53548.5</v>
+        <v>54776.2</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>229452</v>
+        <v>229795</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>21221.5</v>
+        <v>22249.8</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>16097.6</v>
+        <v>16678.6</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>53059.4</v>
+        <v>53071.1</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3328.72</v>
+        <v>3385.82</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>47308.3</v>
+        <v>47813.5</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>59845.6</v>
+        <v>59831.6</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>32658.2</v>
+        <v>33362.8</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>12859.8</v>
+        <v>13075.1</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>18012.5</v>
+        <v>18230.9</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>31297.4</v>
+        <v>32300.1</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>82787.2</v>
+        <v>84231.2</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>76508.2</v>
+        <v>78167.9</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>99785.8</v>
+        <v>100789</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>29923</v>
+        <v>30423</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>100516</v>
+        <v>101192</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>48328.6</v>
+        <v>49970.9</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>13727.8</v>
+        <v>14383.8</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>45608.6</v>
+        <v>46749.7</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>47330.5</v>
+        <v>48449.8</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>61765.3</v>
+        <v>62855.7</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>136487</v>
+        <v>137823</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>188506</v>
+        <v>188514</v>
       </c>
       <c r="AG6" s="0" t="n">
-        <v>86875.6</v>
+        <v>88481.5</v>
       </c>
       <c r="AH6" s="0" t="n">
-        <v>52546.3</v>
+        <v>54716.8</v>
       </c>
       <c r="AI6" s="0" t="n">
-        <v>64983.4</v>
+        <v>66216.4</v>
       </c>
       <c r="AJ6" s="0" t="n">
-        <v>23808</v>
+        <v>24454.9</v>
       </c>
       <c r="AK6" s="0" t="n">
-        <v>138253</v>
+        <v>139076</v>
       </c>
       <c r="AL6" s="0" t="n">
-        <v>102361</v>
+        <v>103891</v>
       </c>
       <c r="AM6" s="0" t="n">
-        <v>16573</v>
+        <v>17110.3</v>
       </c>
       <c r="AN6" s="0" t="n">
-        <v>95218</v>
+        <v>97398.7</v>
       </c>
       <c r="AO6" s="0" t="n">
-        <v>304455</v>
+        <v>313620</v>
       </c>
       <c r="AP6" s="0" t="n">
-        <v>923167</v>
+        <v>922978</v>
       </c>
       <c r="AQ6" s="0" t="n">
-        <v>238521</v>
+        <v>246907</v>
       </c>
       <c r="AR6" s="0" t="n">
-        <v>24547.3</v>
+        <v>25620.6</v>
       </c>
       <c r="AS6" s="0" t="n">
-        <v>80545.1</v>
+        <v>82316.5</v>
       </c>
       <c r="AT6" s="0" t="n">
-        <v>739431</v>
+        <v>741570</v>
       </c>
       <c r="AU6" s="0" t="n">
-        <v>34878.5</v>
+        <v>36155.7</v>
       </c>
       <c r="AV6" s="0" t="n">
-        <v>637982</v>
+        <v>645853</v>
       </c>
       <c r="AW6" s="0" t="n">
-        <v>738631</v>
+        <v>744035</v>
       </c>
       <c r="AX6" s="0" t="n">
-        <v>576277</v>
+        <v>577922</v>
       </c>
       <c r="AY6" s="0" t="n">
-        <v>37651.8</v>
+        <v>38796.4</v>
       </c>
       <c r="AZ6" s="0" t="n">
-        <v>190501</v>
+        <v>191704</v>
       </c>
       <c r="BA6" s="0" t="n">
-        <v>233000</v>
+        <v>233041</v>
       </c>
       <c r="BB6" s="0" t="n">
-        <v>208208</v>
+        <v>208551</v>
       </c>
       <c r="BC6" s="0" t="n">
-        <v>172072</v>
+        <v>174562</v>
       </c>
       <c r="BD6" s="0" t="n">
-        <v>64976</v>
+        <v>66496.6</v>
       </c>
       <c r="BE6" s="0" t="n">
-        <v>46544.1</v>
+        <v>47686.5</v>
       </c>
       <c r="BF6" s="0" t="n">
-        <v>129892</v>
+        <v>131609</v>
       </c>
       <c r="BG6" s="0" t="n">
-        <v>38604.5</v>
+        <v>39304.7</v>
       </c>
       <c r="BH6" s="0" t="n">
-        <v>247513</v>
+        <v>253018</v>
       </c>
       <c r="BI6" s="0" t="n">
-        <v>339277</v>
+        <v>341348</v>
       </c>
       <c r="BJ6" s="0" t="n">
-        <v>176610</v>
+        <v>180589</v>
       </c>
       <c r="BK6" s="0" t="n">
-        <v>185688</v>
+        <v>190617</v>
       </c>
       <c r="BL6" s="0" t="n">
-        <v>191567</v>
+        <v>193498</v>
       </c>
       <c r="BM6" s="0" t="n">
-        <v>471472</v>
+        <v>471320</v>
       </c>
       <c r="BN6" s="0" t="n">
-        <v>405686</v>
+        <v>406572</v>
       </c>
       <c r="BO6" s="0" t="n">
-        <v>184146</v>
+        <v>188127</v>
       </c>
       <c r="BP6" s="0" t="n">
-        <v>283284</v>
+        <v>286631</v>
       </c>
       <c r="BQ6" s="0" t="n">
-        <v>79828.8</v>
+        <v>81270.7</v>
       </c>
       <c r="BR6" s="0" t="n">
-        <v>113082</v>
+        <v>114862</v>
       </c>
       <c r="BS6" s="0" t="n">
-        <v>392487</v>
+        <v>399680</v>
       </c>
       <c r="BT6" s="0" t="n">
-        <v>234211</v>
+        <v>241307</v>
       </c>
       <c r="BU6" s="0" t="n">
-        <v>46641</v>
+        <v>48990.3</v>
       </c>
       <c r="BV6" s="0" t="n">
-        <v>103083</v>
+        <v>106044</v>
       </c>
       <c r="BW6" s="0" t="n">
-        <v>108500</v>
+        <v>112000</v>
       </c>
       <c r="BX6" s="0" t="n">
-        <v>184072</v>
+        <v>187499</v>
       </c>
       <c r="BY6" s="0" t="n">
-        <v>218817</v>
+        <v>223677</v>
       </c>
       <c r="BZ6" s="0" t="n">
-        <v>562480</v>
+        <v>566035</v>
       </c>
       <c r="CA6" s="0" t="n">
-        <v>469231</v>
+        <v>474599</v>
       </c>
       <c r="CB6" s="0" t="n">
-        <v>335067</v>
+        <v>340974</v>
       </c>
       <c r="CC6" s="0" t="n">
-        <v>21092.9</v>
+        <v>22125.6</v>
       </c>
       <c r="CD6" s="0" t="n">
-        <v>235589</v>
+        <v>238151</v>
       </c>
       <c r="CE6" s="0" t="n">
-        <v>406636</v>
+        <v>410346</v>
       </c>
       <c r="CF6" s="0" t="n">
-        <v>11769.5</v>
+        <v>11605.1</v>
       </c>
       <c r="CG6" s="0" t="n">
-        <v>215055</v>
+        <v>221362</v>
       </c>
       <c r="CH6" s="0" t="n">
-        <v>449996</v>
+        <v>452993</v>
       </c>
       <c r="CI6" s="0" t="n">
-        <v>8188.38</v>
+        <v>8185.98</v>
       </c>
       <c r="CJ6" s="0" t="n">
-        <v>197274</v>
+        <v>204051</v>
       </c>
       <c r="CK6" s="0" t="n">
-        <v>938406</v>
+        <v>937249</v>
       </c>
       <c r="CL6" s="0" t="n">
-        <v>413938</v>
+        <v>417759</v>
       </c>
       <c r="CM6" s="0" t="n">
-        <v>78435.9</v>
+        <v>79430.4</v>
       </c>
       <c r="CN6" s="0" t="n">
-        <v>808699</v>
+        <v>812360</v>
       </c>
       <c r="CO6" s="0" t="n">
-        <v>236495</v>
+        <v>238219</v>
       </c>
       <c r="CP6" s="0" t="n">
-        <v>643579</v>
+        <v>651609</v>
       </c>
       <c r="CQ6" s="0" t="n">
-        <v>650675</v>
+        <v>658056</v>
       </c>
       <c r="CR6" s="0" t="n">
-        <v>32609.1</v>
+        <v>33834.2</v>
       </c>
       <c r="CS6" s="0" t="n">
-        <v>677864</v>
+        <v>685175</v>
       </c>
       <c r="CT6" s="0" t="n">
-        <v>682552</v>
+        <v>685677</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,295 +2203,295 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>190698</v>
+        <v>191290</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>79206.9</v>
+        <v>78777.3</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>192103</v>
+        <v>191116</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>220210</v>
+        <v>220244</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>224996</v>
+        <v>224882</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>71236.8</v>
+        <v>73438</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>11443.6</v>
+        <v>11002.2</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>63155.2</v>
+        <v>63109.2</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>230589</v>
+        <v>230795</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>24576.2</v>
+        <v>25180.1</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>18631.2</v>
+        <v>18815.6</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>53454.1</v>
+        <v>53596.6</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>4204.76</v>
+        <v>4201.52</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>50550.5</v>
+        <v>50271.7</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>60110.5</v>
+        <v>60149.8</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>36387.2</v>
+        <v>37031</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>14945.4</v>
+        <v>14693.7</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>19909.2</v>
+        <v>19668.6</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>35520.4</v>
+        <v>35480.2</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>89107</v>
+        <v>89783.8</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>83142.9</v>
+        <v>83152</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>103557</v>
+        <v>102514</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>33975.6</v>
+        <v>33935</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>101475</v>
+        <v>102171</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>55219.9</v>
+        <v>56356.8</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>17452.1</v>
+        <v>17081.1</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>52830.7</v>
+        <v>52323.9</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>53787.2</v>
+        <v>53484.7</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>69505.1</v>
+        <v>70397.3</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>140651</v>
+        <v>142084</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>188531</v>
+        <v>188483</v>
       </c>
       <c r="AG7" s="0" t="n">
-        <v>99408.9</v>
+        <v>98067.4</v>
       </c>
       <c r="AH7" s="0" t="n">
-        <v>63823.4</v>
+        <v>63501.4</v>
       </c>
       <c r="AI7" s="0" t="n">
-        <v>74649</v>
+        <v>73461.9</v>
       </c>
       <c r="AJ7" s="0" t="n">
-        <v>28286.8</v>
+        <v>28366.7</v>
       </c>
       <c r="AK7" s="0" t="n">
-        <v>143828</v>
+        <v>142843</v>
       </c>
       <c r="AL7" s="0" t="n">
-        <v>114986</v>
+        <v>115879</v>
       </c>
       <c r="AM7" s="0" t="n">
-        <v>20774.7</v>
+        <v>20849.8</v>
       </c>
       <c r="AN7" s="0" t="n">
-        <v>106914</v>
+        <v>107156</v>
       </c>
       <c r="AO7" s="0" t="n">
-        <v>342971</v>
+        <v>350145</v>
       </c>
       <c r="AP7" s="0" t="n">
-        <v>926495</v>
+        <v>925802</v>
       </c>
       <c r="AQ7" s="0" t="n">
-        <v>274337</v>
+        <v>277823</v>
       </c>
       <c r="AR7" s="0" t="n">
-        <v>29517.5</v>
+        <v>29995.6</v>
       </c>
       <c r="AS7" s="0" t="n">
-        <v>93753.2</v>
+        <v>93715</v>
       </c>
       <c r="AT7" s="0" t="n">
-        <v>772914</v>
+        <v>771630</v>
       </c>
       <c r="AU7" s="0" t="n">
-        <v>40246.3</v>
+        <v>41092.1</v>
       </c>
       <c r="AV7" s="0" t="n">
-        <v>684830</v>
+        <v>686782</v>
       </c>
       <c r="AW7" s="0" t="n">
-        <v>772819</v>
+        <v>771367</v>
       </c>
       <c r="AX7" s="0" t="n">
-        <v>617531</v>
+        <v>609492</v>
       </c>
       <c r="AY7" s="0" t="n">
-        <v>44910</v>
+        <v>44891.5</v>
       </c>
       <c r="AZ7" s="0" t="n">
-        <v>197709</v>
+        <v>198354</v>
       </c>
       <c r="BA7" s="0" t="n">
-        <v>234088</v>
+        <v>234186</v>
       </c>
       <c r="BB7" s="0" t="n">
-        <v>210625</v>
+        <v>211576</v>
       </c>
       <c r="BC7" s="0" t="n">
-        <v>182517</v>
+        <v>183228</v>
       </c>
       <c r="BD7" s="0" t="n">
-        <v>74561.2</v>
+        <v>75578.2</v>
       </c>
       <c r="BE7" s="0" t="n">
-        <v>53872.3</v>
+        <v>53415</v>
       </c>
       <c r="BF7" s="0" t="n">
-        <v>139754</v>
+        <v>142101</v>
       </c>
       <c r="BG7" s="0" t="n">
-        <v>44693.3</v>
+        <v>45075.9</v>
       </c>
       <c r="BH7" s="0" t="n">
-        <v>270781</v>
+        <v>270923</v>
       </c>
       <c r="BI7" s="0" t="n">
-        <v>359871</v>
+        <v>362666</v>
       </c>
       <c r="BJ7" s="0" t="n">
-        <v>196814</v>
+        <v>197623</v>
       </c>
       <c r="BK7" s="0" t="n">
-        <v>207099</v>
+        <v>211106</v>
       </c>
       <c r="BL7" s="0" t="n">
-        <v>210888</v>
+        <v>212202</v>
       </c>
       <c r="BM7" s="0" t="n">
-        <v>473130</v>
+        <v>473345</v>
       </c>
       <c r="BN7" s="0" t="n">
-        <v>411503</v>
+        <v>411580</v>
       </c>
       <c r="BO7" s="0" t="n">
-        <v>204425</v>
+        <v>207872</v>
       </c>
       <c r="BP7" s="0" t="n">
-        <v>308027</v>
+        <v>309513</v>
       </c>
       <c r="BQ7" s="0" t="n">
-        <v>93250.1</v>
+        <v>94210.1</v>
       </c>
       <c r="BR7" s="0" t="n">
-        <v>129897</v>
+        <v>131751</v>
       </c>
       <c r="BS7" s="0" t="n">
-        <v>422015</v>
+        <v>424216</v>
       </c>
       <c r="BT7" s="0" t="n">
-        <v>267519</v>
+        <v>268120</v>
       </c>
       <c r="BU7" s="0" t="n">
-        <v>56869</v>
+        <v>57003.5</v>
       </c>
       <c r="BV7" s="0" t="n">
-        <v>120610</v>
+        <v>122654</v>
       </c>
       <c r="BW7" s="0" t="n">
-        <v>127156</v>
+        <v>126741</v>
       </c>
       <c r="BX7" s="0" t="n">
-        <v>210292</v>
+        <v>213865</v>
       </c>
       <c r="BY7" s="0" t="n">
-        <v>248690</v>
+        <v>253487</v>
       </c>
       <c r="BZ7" s="0" t="n">
-        <v>587428</v>
+        <v>588712</v>
       </c>
       <c r="CA7" s="0" t="n">
-        <v>504021</v>
+        <v>504827</v>
       </c>
       <c r="CB7" s="0" t="n">
-        <v>361343</v>
+        <v>362736</v>
       </c>
       <c r="CC7" s="0" t="n">
-        <v>24218.9</v>
+        <v>24626.9</v>
       </c>
       <c r="CD7" s="0" t="n">
-        <v>257358</v>
+        <v>257604</v>
       </c>
       <c r="CE7" s="0" t="n">
-        <v>430470</v>
+        <v>432341</v>
       </c>
       <c r="CF7" s="0" t="n">
-        <v>13569.9</v>
+        <v>13352.6</v>
       </c>
       <c r="CG7" s="0" t="n">
-        <v>240878</v>
+        <v>242145</v>
       </c>
       <c r="CH7" s="0" t="n">
-        <v>461201</v>
+        <v>468474</v>
       </c>
       <c r="CI7" s="0" t="n">
-        <v>8704.26</v>
+        <v>8721.82</v>
       </c>
       <c r="CJ7" s="0" t="n">
-        <v>219715</v>
+        <v>223482</v>
       </c>
       <c r="CK7" s="0" t="n">
-        <v>948045</v>
+        <v>949812</v>
       </c>
       <c r="CL7" s="0" t="n">
-        <v>462470</v>
+        <v>459804</v>
       </c>
       <c r="CM7" s="0" t="n">
-        <v>89664.5</v>
+        <v>91534.5</v>
       </c>
       <c r="CN7" s="0" t="n">
-        <v>851479</v>
+        <v>854303</v>
       </c>
       <c r="CO7" s="0" t="n">
-        <v>267146</v>
+        <v>270120</v>
       </c>
       <c r="CP7" s="0" t="n">
-        <v>693025</v>
+        <v>697885</v>
       </c>
       <c r="CQ7" s="0" t="n">
-        <v>694777</v>
+        <v>707894</v>
       </c>
       <c r="CR7" s="0" t="n">
-        <v>38327.2</v>
+        <v>38526.3</v>
       </c>
       <c r="CS7" s="0" t="n">
-        <v>727471</v>
+        <v>738020</v>
       </c>
       <c r="CT7" s="0" t="n">
-        <v>726939</v>
+        <v>733196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,295 +2499,295 @@
         <v>30</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>192284</v>
+        <v>191780</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>79959.5</v>
+        <v>80253.9</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>192704</v>
+        <v>192253</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>220487</v>
+        <v>220477</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>225674</v>
+        <v>225453</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>72157.5</v>
+        <v>74112.7</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>11488.3</v>
+        <v>11064.8</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>64114.4</v>
+        <v>63880</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>230959</v>
+        <v>230977</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>24837.6</v>
+        <v>25494.7</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>19163.9</v>
+        <v>19129.4</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>53737.5</v>
+        <v>53732.1</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>4288.08</v>
+        <v>4273.88</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>50722.8</v>
+        <v>50312.3</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>60201.6</v>
+        <v>60282.4</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>36762.2</v>
+        <v>37114.7</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>15097.6</v>
+        <v>14974.8</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>20094.7</v>
+        <v>19799.1</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>35748.1</v>
+        <v>36051</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>89700.5</v>
+        <v>90342.4</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>84050</v>
+        <v>83705.1</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>103619</v>
+        <v>102592</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>34595.9</v>
+        <v>34684.5</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>101613</v>
+        <v>102322</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>56092</v>
+        <v>56673.5</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>17798.3</v>
+        <v>17347.4</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>53433.3</v>
+        <v>53106.3</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>54661.8</v>
+        <v>54489.6</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>70153.9</v>
+        <v>70975.7</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>141606</v>
+        <v>142235</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>188480</v>
+        <v>188508</v>
       </c>
       <c r="AG8" s="0" t="n">
-        <v>101246</v>
+        <v>99061.8</v>
       </c>
       <c r="AH8" s="0" t="n">
-        <v>64831.3</v>
+        <v>64366.6</v>
       </c>
       <c r="AI8" s="0" t="n">
-        <v>75212.2</v>
+        <v>74699.5</v>
       </c>
       <c r="AJ8" s="0" t="n">
-        <v>28680</v>
+        <v>28668.8</v>
       </c>
       <c r="AK8" s="0" t="n">
-        <v>144574</v>
+        <v>143748</v>
       </c>
       <c r="AL8" s="0" t="n">
-        <v>116197</v>
+        <v>116853</v>
       </c>
       <c r="AM8" s="0" t="n">
-        <v>21600.1</v>
+        <v>21087.7</v>
       </c>
       <c r="AN8" s="0" t="n">
-        <v>108032</v>
+        <v>108258</v>
       </c>
       <c r="AO8" s="0" t="n">
-        <v>349054</v>
+        <v>353958</v>
       </c>
       <c r="AP8" s="0" t="n">
-        <v>927859</v>
+        <v>928214</v>
       </c>
       <c r="AQ8" s="0" t="n">
-        <v>278290</v>
+        <v>279995</v>
       </c>
       <c r="AR8" s="0" t="n">
-        <v>29999.2</v>
+        <v>30402</v>
       </c>
       <c r="AS8" s="0" t="n">
-        <v>94987</v>
+        <v>94978.1</v>
       </c>
       <c r="AT8" s="0" t="n">
-        <v>775421</v>
+        <v>771549</v>
       </c>
       <c r="AU8" s="0" t="n">
-        <v>40680.6</v>
+        <v>41466.6</v>
       </c>
       <c r="AV8" s="0" t="n">
-        <v>687595</v>
+        <v>687780</v>
       </c>
       <c r="AW8" s="0" t="n">
-        <v>772622</v>
+        <v>771623</v>
       </c>
       <c r="AX8" s="0" t="n">
-        <v>620609</v>
+        <v>613702</v>
       </c>
       <c r="AY8" s="0" t="n">
-        <v>45515.9</v>
+        <v>45496</v>
       </c>
       <c r="AZ8" s="0" t="n">
-        <v>197177</v>
+        <v>198026</v>
       </c>
       <c r="BA8" s="0" t="n">
-        <v>234607</v>
+        <v>234778</v>
       </c>
       <c r="BB8" s="0" t="n">
-        <v>211718</v>
+        <v>212430</v>
       </c>
       <c r="BC8" s="0" t="n">
-        <v>182881</v>
+        <v>182809</v>
       </c>
       <c r="BD8" s="0" t="n">
-        <v>75757.8</v>
+        <v>76274.5</v>
       </c>
       <c r="BE8" s="0" t="n">
-        <v>54714.8</v>
+        <v>54230.2</v>
       </c>
       <c r="BF8" s="0" t="n">
-        <v>141029</v>
+        <v>142384</v>
       </c>
       <c r="BG8" s="0" t="n">
-        <v>45557.3</v>
+        <v>45546.4</v>
       </c>
       <c r="BH8" s="0" t="n">
-        <v>272690</v>
+        <v>273577</v>
       </c>
       <c r="BI8" s="0" t="n">
-        <v>360355</v>
+        <v>362823</v>
       </c>
       <c r="BJ8" s="0" t="n">
-        <v>198306</v>
+        <v>200277</v>
       </c>
       <c r="BK8" s="0" t="n">
-        <v>209317</v>
+        <v>212757</v>
       </c>
       <c r="BL8" s="0" t="n">
-        <v>212788</v>
+        <v>213811</v>
       </c>
       <c r="BM8" s="0" t="n">
-        <v>474294</v>
+        <v>473992</v>
       </c>
       <c r="BN8" s="0" t="n">
-        <v>412843</v>
+        <v>413292</v>
       </c>
       <c r="BO8" s="0" t="n">
-        <v>206501</v>
+        <v>209491</v>
       </c>
       <c r="BP8" s="0" t="n">
-        <v>309691</v>
+        <v>311259</v>
       </c>
       <c r="BQ8" s="0" t="n">
-        <v>94509.8</v>
+        <v>95896.7</v>
       </c>
       <c r="BR8" s="0" t="n">
-        <v>132360</v>
+        <v>133168</v>
       </c>
       <c r="BS8" s="0" t="n">
-        <v>425119</v>
+        <v>427039</v>
       </c>
       <c r="BT8" s="0" t="n">
-        <v>269779</v>
+        <v>271086</v>
       </c>
       <c r="BU8" s="0" t="n">
-        <v>57930.6</v>
+        <v>58058.8</v>
       </c>
       <c r="BV8" s="0" t="n">
-        <v>121929</v>
+        <v>124111</v>
       </c>
       <c r="BW8" s="0" t="n">
-        <v>129367</v>
+        <v>129139</v>
       </c>
       <c r="BX8" s="0" t="n">
-        <v>212797</v>
+        <v>215227</v>
       </c>
       <c r="BY8" s="0" t="n">
-        <v>250799</v>
+        <v>255884</v>
       </c>
       <c r="BZ8" s="0" t="n">
-        <v>587258</v>
+        <v>588842</v>
       </c>
       <c r="CA8" s="0" t="n">
-        <v>505588</v>
+        <v>505672</v>
       </c>
       <c r="CB8" s="0" t="n">
-        <v>361924</v>
+        <v>363526</v>
       </c>
       <c r="CC8" s="0" t="n">
-        <v>24858.5</v>
+        <v>25279.7</v>
       </c>
       <c r="CD8" s="0" t="n">
-        <v>259502</v>
+        <v>259340</v>
       </c>
       <c r="CE8" s="0" t="n">
-        <v>430448</v>
+        <v>431739</v>
       </c>
       <c r="CF8" s="0" t="n">
-        <v>13816.5</v>
+        <v>13612.8</v>
       </c>
       <c r="CG8" s="0" t="n">
-        <v>242477</v>
+        <v>243906</v>
       </c>
       <c r="CH8" s="0" t="n">
-        <v>462521</v>
+        <v>469055</v>
       </c>
       <c r="CI8" s="0" t="n">
-        <v>8862.44</v>
+        <v>8842.06</v>
       </c>
       <c r="CJ8" s="0" t="n">
-        <v>221773</v>
+        <v>224654</v>
       </c>
       <c r="CK8" s="0" t="n">
-        <v>953509</v>
+        <v>955154</v>
       </c>
       <c r="CL8" s="0" t="n">
-        <v>464907</v>
+        <v>463938</v>
       </c>
       <c r="CM8" s="0" t="n">
-        <v>92037.6</v>
+        <v>93395.6</v>
       </c>
       <c r="CN8" s="0" t="n">
-        <v>852027</v>
+        <v>854017</v>
       </c>
       <c r="CO8" s="0" t="n">
-        <v>271922</v>
+        <v>273010</v>
       </c>
       <c r="CP8" s="0" t="n">
-        <v>693482</v>
+        <v>699540</v>
       </c>
       <c r="CQ8" s="0" t="n">
-        <v>698193</v>
+        <v>710564</v>
       </c>
       <c r="CR8" s="0" t="n">
-        <v>39200.4</v>
+        <v>39586.3</v>
       </c>
       <c r="CS8" s="0" t="n">
-        <v>729022</v>
+        <v>739386</v>
       </c>
       <c r="CT8" s="0" t="n">
-        <v>728630</v>
+        <v>737367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,295 +2795,295 @@
         <v>40</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>193810</v>
+        <v>192763</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>81515.9</v>
+        <v>82056.7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>194612</v>
+        <v>194068</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>220694</v>
+        <v>220810</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>226693</v>
+        <v>226023</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>74614.5</v>
+        <v>76322.5</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>11748.6</v>
+        <v>11280.1</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>66285.8</v>
+        <v>66027.6</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>231046</v>
+        <v>231104</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>25591</v>
+        <v>26393.5</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>19668.7</v>
+        <v>19749.4</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>54127.1</v>
+        <v>54053.5</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>4528.4</v>
+        <v>4460.56</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>51414.5</v>
+        <v>50969.1</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>60329.5</v>
+        <v>60251.2</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>37529.8</v>
+        <v>37853.7</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>15544.2</v>
+        <v>15355.9</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>20873.2</v>
+        <v>20327.4</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>36765.3</v>
+        <v>36766.8</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>91209.5</v>
+        <v>92710.9</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>86374.1</v>
+        <v>85156.9</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>104114</v>
+        <v>103245</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>35750.1</v>
+        <v>35577.2</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>102536</v>
+        <v>102706</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>57658.7</v>
+        <v>58114.2</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>18502.2</v>
+        <v>17964.2</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>54595.9</v>
+        <v>54748.8</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>56611.4</v>
+        <v>55431.1</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>72225.5</v>
+        <v>73021.9</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>142814</v>
+        <v>143908</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>188517</v>
+        <v>188533</v>
       </c>
       <c r="AG9" s="0" t="n">
-        <v>102946</v>
+        <v>101834</v>
       </c>
       <c r="AH9" s="0" t="n">
-        <v>67136.6</v>
+        <v>66062.6</v>
       </c>
       <c r="AI9" s="0" t="n">
-        <v>77789.2</v>
+        <v>77092.2</v>
       </c>
       <c r="AJ9" s="0" t="n">
-        <v>29558.3</v>
+        <v>29634.1</v>
       </c>
       <c r="AK9" s="0" t="n">
-        <v>145711</v>
+        <v>145011</v>
       </c>
       <c r="AL9" s="0" t="n">
-        <v>118831</v>
+        <v>118461</v>
       </c>
       <c r="AM9" s="0" t="n">
-        <v>22447.5</v>
+        <v>21885.1</v>
       </c>
       <c r="AN9" s="0" t="n">
-        <v>110782</v>
+        <v>110739</v>
       </c>
       <c r="AO9" s="0" t="n">
-        <v>358886</v>
+        <v>359625</v>
       </c>
       <c r="AP9" s="0" t="n">
-        <v>929326</v>
+        <v>930064</v>
       </c>
       <c r="AQ9" s="0" t="n">
-        <v>286428</v>
+        <v>283323</v>
       </c>
       <c r="AR9" s="0" t="n">
-        <v>30356.1</v>
+        <v>30756</v>
       </c>
       <c r="AS9" s="0" t="n">
-        <v>96193.4</v>
+        <v>96632.8</v>
       </c>
       <c r="AT9" s="0" t="n">
-        <v>778082</v>
+        <v>774323</v>
       </c>
       <c r="AU9" s="0" t="n">
-        <v>41077.9</v>
+        <v>41998.4</v>
       </c>
       <c r="AV9" s="0" t="n">
-        <v>694801</v>
+        <v>693596</v>
       </c>
       <c r="AW9" s="0" t="n">
-        <v>776919</v>
+        <v>776265</v>
       </c>
       <c r="AX9" s="0" t="n">
-        <v>628815</v>
+        <v>615643</v>
       </c>
       <c r="AY9" s="0" t="n">
-        <v>46533</v>
+        <v>46145.3</v>
       </c>
       <c r="AZ9" s="0" t="n">
-        <v>198818</v>
+        <v>199015</v>
       </c>
       <c r="BA9" s="0" t="n">
-        <v>234945</v>
+        <v>235329</v>
       </c>
       <c r="BB9" s="0" t="n">
-        <v>214452</v>
+        <v>214379</v>
       </c>
       <c r="BC9" s="0" t="n">
-        <v>184031</v>
+        <v>183827</v>
       </c>
       <c r="BD9" s="0" t="n">
-        <v>77541</v>
+        <v>77451.6</v>
       </c>
       <c r="BE9" s="0" t="n">
-        <v>56515.3</v>
+        <v>55307.4</v>
       </c>
       <c r="BF9" s="0" t="n">
-        <v>143501</v>
+        <v>143629</v>
       </c>
       <c r="BG9" s="0" t="n">
-        <v>46611.9</v>
+        <v>46651.2</v>
       </c>
       <c r="BH9" s="0" t="n">
-        <v>276876</v>
+        <v>277792</v>
       </c>
       <c r="BI9" s="0" t="n">
-        <v>363303</v>
+        <v>363295</v>
       </c>
       <c r="BJ9" s="0" t="n">
-        <v>201194</v>
+        <v>203547</v>
       </c>
       <c r="BK9" s="0" t="n">
-        <v>213675</v>
+        <v>216356</v>
       </c>
       <c r="BL9" s="0" t="n">
-        <v>216248</v>
+        <v>218112</v>
       </c>
       <c r="BM9" s="0" t="n">
-        <v>474696</v>
+        <v>474957</v>
       </c>
       <c r="BN9" s="0" t="n">
-        <v>416128</v>
+        <v>416809</v>
       </c>
       <c r="BO9" s="0" t="n">
-        <v>210331</v>
+        <v>212407</v>
       </c>
       <c r="BP9" s="0" t="n">
-        <v>311058</v>
+        <v>312993</v>
       </c>
       <c r="BQ9" s="0" t="n">
-        <v>97329.4</v>
+        <v>98629.6</v>
       </c>
       <c r="BR9" s="0" t="n">
-        <v>135621</v>
+        <v>135987</v>
       </c>
       <c r="BS9" s="0" t="n">
-        <v>430842</v>
+        <v>429828</v>
       </c>
       <c r="BT9" s="0" t="n">
-        <v>275411</v>
+        <v>277592</v>
       </c>
       <c r="BU9" s="0" t="n">
-        <v>59212.4</v>
+        <v>58879.3</v>
       </c>
       <c r="BV9" s="0" t="n">
-        <v>127244</v>
+        <v>127565</v>
       </c>
       <c r="BW9" s="0" t="n">
-        <v>132017</v>
+        <v>131506</v>
       </c>
       <c r="BX9" s="0" t="n">
-        <v>218180</v>
+        <v>219222</v>
       </c>
       <c r="BY9" s="0" t="n">
-        <v>256324</v>
+        <v>259046</v>
       </c>
       <c r="BZ9" s="0" t="n">
-        <v>591009</v>
+        <v>592262</v>
       </c>
       <c r="CA9" s="0" t="n">
-        <v>509204</v>
+        <v>511629</v>
       </c>
       <c r="CB9" s="0" t="n">
-        <v>362909</v>
+        <v>364413</v>
       </c>
       <c r="CC9" s="0" t="n">
-        <v>25852.2</v>
+        <v>25724.6</v>
       </c>
       <c r="CD9" s="0" t="n">
-        <v>264422</v>
+        <v>262276</v>
       </c>
       <c r="CE9" s="0" t="n">
-        <v>431874</v>
+        <v>433927</v>
       </c>
       <c r="CF9" s="0" t="n">
-        <v>14053.3</v>
+        <v>13744</v>
       </c>
       <c r="CG9" s="0" t="n">
-        <v>245183</v>
+        <v>246482</v>
       </c>
       <c r="CH9" s="0" t="n">
-        <v>470268</v>
+        <v>473647</v>
       </c>
       <c r="CI9" s="0" t="n">
-        <v>9190.68</v>
+        <v>8941.06</v>
       </c>
       <c r="CJ9" s="0" t="n">
-        <v>227094</v>
+        <v>228005</v>
       </c>
       <c r="CK9" s="0" t="n">
-        <v>963071</v>
+        <v>964183</v>
       </c>
       <c r="CL9" s="0" t="n">
-        <v>470947</v>
+        <v>472058</v>
       </c>
       <c r="CM9" s="0" t="n">
-        <v>94877.5</v>
+        <v>94962.9</v>
       </c>
       <c r="CN9" s="0" t="n">
-        <v>855202</v>
+        <v>857918</v>
       </c>
       <c r="CO9" s="0" t="n">
-        <v>276314</v>
+        <v>276256</v>
       </c>
       <c r="CP9" s="0" t="n">
-        <v>698388</v>
+        <v>702221</v>
       </c>
       <c r="CQ9" s="0" t="n">
-        <v>701456</v>
+        <v>711710</v>
       </c>
       <c r="CR9" s="0" t="n">
-        <v>40114.9</v>
+        <v>40305</v>
       </c>
       <c r="CS9" s="0" t="n">
-        <v>733772</v>
+        <v>739894</v>
       </c>
       <c r="CT9" s="0" t="n">
-        <v>731803</v>
+        <v>739082</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,295 +3091,295 @@
         <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>193779</v>
+        <v>192665</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>82635.3</v>
+        <v>82857.6</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>195828</v>
+        <v>194276</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>220919</v>
+        <v>221228</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>227568</v>
+        <v>226400</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>76189.8</v>
+        <v>77994.8</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>11916.9</v>
+        <v>11419.9</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>67072.1</v>
+        <v>66647</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>231065</v>
+        <v>231215</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>25881.2</v>
+        <v>26666</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>19825.4</v>
+        <v>19963.3</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>54166.2</v>
+        <v>54168.5</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>4585.36</v>
+        <v>4578.28</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>51649.1</v>
+        <v>51126.3</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>60397.9</v>
+        <v>60339.9</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>37864.5</v>
+        <v>38025</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>15837.2</v>
+        <v>15521.9</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>21299.3</v>
+        <v>20555.8</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>37080.6</v>
+        <v>37275.5</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>91954.9</v>
+        <v>92928.7</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>86970.8</v>
+        <v>85795.8</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>104177</v>
+        <v>103392</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>36116</v>
+        <v>36018.2</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>102513</v>
+        <v>102652</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>58332.7</v>
+        <v>58826.5</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>18753.3</v>
+        <v>18113.8</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>54910.6</v>
+        <v>55192.7</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>57568.9</v>
+        <v>56162.8</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>72449.9</v>
+        <v>73519.4</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>143226</v>
+        <v>143824</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>188531</v>
+        <v>188532</v>
       </c>
       <c r="AG10" s="0" t="n">
-        <v>103560</v>
+        <v>103491</v>
       </c>
       <c r="AH10" s="0" t="n">
-        <v>68135</v>
+        <v>66864.1</v>
       </c>
       <c r="AI10" s="0" t="n">
-        <v>78956.9</v>
+        <v>77822.7</v>
       </c>
       <c r="AJ10" s="0" t="n">
-        <v>29878.9</v>
+        <v>29906.8</v>
       </c>
       <c r="AK10" s="0" t="n">
-        <v>145934</v>
+        <v>145007</v>
       </c>
       <c r="AL10" s="0" t="n">
-        <v>119318</v>
+        <v>119273</v>
       </c>
       <c r="AM10" s="0" t="n">
-        <v>22703.3</v>
+        <v>22295</v>
       </c>
       <c r="AN10" s="0" t="n">
-        <v>111736</v>
+        <v>111869</v>
       </c>
       <c r="AO10" s="0" t="n">
-        <v>362064</v>
+        <v>362275</v>
       </c>
       <c r="AP10" s="0" t="n">
-        <v>931098</v>
+        <v>930649</v>
       </c>
       <c r="AQ10" s="0" t="n">
-        <v>289280</v>
+        <v>286095</v>
       </c>
       <c r="AR10" s="0" t="n">
-        <v>30464.4</v>
+        <v>30985.7</v>
       </c>
       <c r="AS10" s="0" t="n">
-        <v>97391.9</v>
+        <v>97437.5</v>
       </c>
       <c r="AT10" s="0" t="n">
-        <v>778152</v>
+        <v>775255</v>
       </c>
       <c r="AU10" s="0" t="n">
-        <v>41363.4</v>
+        <v>42164.9</v>
       </c>
       <c r="AV10" s="0" t="n">
-        <v>696494</v>
+        <v>695033</v>
       </c>
       <c r="AW10" s="0" t="n">
-        <v>776605</v>
+        <v>776562</v>
       </c>
       <c r="AX10" s="0" t="n">
-        <v>631800</v>
+        <v>621089</v>
       </c>
       <c r="AY10" s="0" t="n">
-        <v>46929.7</v>
+        <v>46728.4</v>
       </c>
       <c r="AZ10" s="0" t="n">
-        <v>198311</v>
+        <v>198541</v>
       </c>
       <c r="BA10" s="0" t="n">
-        <v>235090</v>
+        <v>235616</v>
       </c>
       <c r="BB10" s="0" t="n">
-        <v>214481</v>
+        <v>214495</v>
       </c>
       <c r="BC10" s="0" t="n">
-        <v>184404</v>
+        <v>183700</v>
       </c>
       <c r="BD10" s="0" t="n">
-        <v>78291.6</v>
+        <v>78305</v>
       </c>
       <c r="BE10" s="0" t="n">
-        <v>56915</v>
+        <v>55768.5</v>
       </c>
       <c r="BF10" s="0" t="n">
-        <v>144810</v>
+        <v>144179</v>
       </c>
       <c r="BG10" s="0" t="n">
-        <v>47084</v>
+        <v>46817.3</v>
       </c>
       <c r="BH10" s="0" t="n">
-        <v>279062</v>
+        <v>279116</v>
       </c>
       <c r="BI10" s="0" t="n">
-        <v>363515</v>
+        <v>363746</v>
       </c>
       <c r="BJ10" s="0" t="n">
-        <v>203451</v>
+        <v>205273</v>
       </c>
       <c r="BK10" s="0" t="n">
-        <v>215282</v>
+        <v>218381</v>
       </c>
       <c r="BL10" s="0" t="n">
-        <v>217438</v>
+        <v>219744</v>
       </c>
       <c r="BM10" s="0" t="n">
-        <v>474933</v>
+        <v>475241</v>
       </c>
       <c r="BN10" s="0" t="n">
-        <v>416856</v>
+        <v>416829</v>
       </c>
       <c r="BO10" s="0" t="n">
-        <v>213175</v>
+        <v>214188</v>
       </c>
       <c r="BP10" s="0" t="n">
-        <v>312653</v>
+        <v>315563</v>
       </c>
       <c r="BQ10" s="0" t="n">
-        <v>98767.3</v>
+        <v>99496</v>
       </c>
       <c r="BR10" s="0" t="n">
-        <v>136943</v>
+        <v>137884</v>
       </c>
       <c r="BS10" s="0" t="n">
-        <v>433455</v>
+        <v>432394</v>
       </c>
       <c r="BT10" s="0" t="n">
-        <v>277564</v>
+        <v>279936</v>
       </c>
       <c r="BU10" s="0" t="n">
-        <v>59588</v>
+        <v>59410.5</v>
       </c>
       <c r="BV10" s="0" t="n">
-        <v>128509</v>
+        <v>129168</v>
       </c>
       <c r="BW10" s="0" t="n">
-        <v>133879</v>
+        <v>132270</v>
       </c>
       <c r="BX10" s="0" t="n">
-        <v>219619</v>
+        <v>220618</v>
       </c>
       <c r="BY10" s="0" t="n">
-        <v>258316</v>
+        <v>261069</v>
       </c>
       <c r="BZ10" s="0" t="n">
-        <v>590554</v>
+        <v>592178</v>
       </c>
       <c r="CA10" s="0" t="n">
-        <v>510820</v>
+        <v>513236</v>
       </c>
       <c r="CB10" s="0" t="n">
-        <v>363760</v>
+        <v>365089</v>
       </c>
       <c r="CC10" s="0" t="n">
-        <v>26070.2</v>
+        <v>26100.7</v>
       </c>
       <c r="CD10" s="0" t="n">
-        <v>265501</v>
+        <v>263288</v>
       </c>
       <c r="CE10" s="0" t="n">
-        <v>431607</v>
+        <v>433208</v>
       </c>
       <c r="CF10" s="0" t="n">
-        <v>14144.6</v>
+        <v>13784.6</v>
       </c>
       <c r="CG10" s="0" t="n">
-        <v>246521</v>
+        <v>247866</v>
       </c>
       <c r="CH10" s="0" t="n">
-        <v>469868</v>
+        <v>473636</v>
       </c>
       <c r="CI10" s="0" t="n">
-        <v>9317.02</v>
+        <v>9041.56</v>
       </c>
       <c r="CJ10" s="0" t="n">
-        <v>228310</v>
+        <v>229572</v>
       </c>
       <c r="CK10" s="0" t="n">
-        <v>965175</v>
+        <v>965815</v>
       </c>
       <c r="CL10" s="0" t="n">
-        <v>473378</v>
+        <v>475862</v>
       </c>
       <c r="CM10" s="0" t="n">
-        <v>95710.2</v>
+        <v>95847.2</v>
       </c>
       <c r="CN10" s="0" t="n">
-        <v>854861</v>
+        <v>857491</v>
       </c>
       <c r="CO10" s="0" t="n">
-        <v>278601</v>
+        <v>278925</v>
       </c>
       <c r="CP10" s="0" t="n">
-        <v>699725</v>
+        <v>705408</v>
       </c>
       <c r="CQ10" s="0" t="n">
-        <v>702592</v>
+        <v>711564</v>
       </c>
       <c r="CR10" s="0" t="n">
-        <v>40521.8</v>
+        <v>40591.4</v>
       </c>
       <c r="CS10" s="0" t="n">
-        <v>736203</v>
+        <v>741713</v>
       </c>
       <c r="CT10" s="0" t="n">
-        <v>732320</v>
+        <v>739594</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,295 +3387,295 @@
         <v>60</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>194603</v>
+        <v>193257</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>83650.6</v>
+        <v>84317.5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>196160</v>
+        <v>194345</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>221209</v>
+        <v>221474</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>227819</v>
+        <v>227391</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>76982.1</v>
+        <v>79011.9</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>11957.7</v>
+        <v>11551.3</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>67847.1</v>
+        <v>66909.1</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>231208</v>
+        <v>231150</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>26219.2</v>
+        <v>26877</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>19954.1</v>
+        <v>20092.1</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>54430</v>
+        <v>54308.4</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>4635.28</v>
+        <v>4627.7</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>51880.4</v>
+        <v>51307.1</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>60289.2</v>
+        <v>60373.6</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>38121.7</v>
+        <v>38374.4</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>16085.1</v>
+        <v>15579.2</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>21378.2</v>
+        <v>20661.3</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>37289.8</v>
+        <v>37595.1</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>92682.7</v>
+        <v>93390.5</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>87948.8</v>
+        <v>86349.5</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>104298</v>
+        <v>103496</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>36360.1</v>
+        <v>36228.3</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>103012</v>
+        <v>103255</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>59199.2</v>
+        <v>59410.6</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>18948.9</v>
+        <v>18224</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>55397.8</v>
+        <v>55811</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>58306.8</v>
+        <v>56845</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>73400.8</v>
+        <v>73913.3</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>143932</v>
+        <v>144545</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>188518</v>
+        <v>188546</v>
       </c>
       <c r="AG11" s="0" t="n">
-        <v>104004</v>
+        <v>104521</v>
       </c>
       <c r="AH11" s="0" t="n">
-        <v>68557.7</v>
+        <v>67767.4</v>
       </c>
       <c r="AI11" s="0" t="n">
-        <v>79817.4</v>
+        <v>78825.1</v>
       </c>
       <c r="AJ11" s="0" t="n">
-        <v>30184.6</v>
+        <v>30175.2</v>
       </c>
       <c r="AK11" s="0" t="n">
-        <v>146716</v>
+        <v>145511</v>
       </c>
       <c r="AL11" s="0" t="n">
-        <v>120344</v>
+        <v>119542</v>
       </c>
       <c r="AM11" s="0" t="n">
-        <v>22823.4</v>
+        <v>22415.4</v>
       </c>
       <c r="AN11" s="0" t="n">
-        <v>112355</v>
+        <v>112862</v>
       </c>
       <c r="AO11" s="0" t="n">
-        <v>365087</v>
+        <v>365057</v>
       </c>
       <c r="AP11" s="0" t="n">
-        <v>932359</v>
+        <v>932021</v>
       </c>
       <c r="AQ11" s="0" t="n">
-        <v>291297</v>
+        <v>287540</v>
       </c>
       <c r="AR11" s="0" t="n">
-        <v>30667.8</v>
+        <v>31020.6</v>
       </c>
       <c r="AS11" s="0" t="n">
-        <v>98030.7</v>
+        <v>98102.4</v>
       </c>
       <c r="AT11" s="0" t="n">
-        <v>779387</v>
+        <v>777045</v>
       </c>
       <c r="AU11" s="0" t="n">
-        <v>41679.1</v>
+        <v>42212.5</v>
       </c>
       <c r="AV11" s="0" t="n">
-        <v>699403</v>
+        <v>698083</v>
       </c>
       <c r="AW11" s="0" t="n">
-        <v>778079</v>
+        <v>777873</v>
       </c>
       <c r="AX11" s="0" t="n">
-        <v>635629</v>
+        <v>623805</v>
       </c>
       <c r="AY11" s="0" t="n">
-        <v>47151</v>
+        <v>47113.9</v>
       </c>
       <c r="AZ11" s="0" t="n">
-        <v>199201</v>
+        <v>199465</v>
       </c>
       <c r="BA11" s="0" t="n">
-        <v>235695</v>
+        <v>235917</v>
       </c>
       <c r="BB11" s="0" t="n">
-        <v>216124</v>
+        <v>216127</v>
       </c>
       <c r="BC11" s="0" t="n">
-        <v>184882</v>
+        <v>184296</v>
       </c>
       <c r="BD11" s="0" t="n">
-        <v>78919.7</v>
+        <v>78657.1</v>
       </c>
       <c r="BE11" s="0" t="n">
-        <v>57450.2</v>
+        <v>56248.9</v>
       </c>
       <c r="BF11" s="0" t="n">
-        <v>145334</v>
+        <v>145133</v>
       </c>
       <c r="BG11" s="0" t="n">
-        <v>47271.3</v>
+        <v>47367.8</v>
       </c>
       <c r="BH11" s="0" t="n">
-        <v>281945</v>
+        <v>280552</v>
       </c>
       <c r="BI11" s="0" t="n">
-        <v>364021</v>
+        <v>364278</v>
       </c>
       <c r="BJ11" s="0" t="n">
-        <v>204915</v>
+        <v>208444</v>
       </c>
       <c r="BK11" s="0" t="n">
-        <v>217767</v>
+        <v>220666</v>
       </c>
       <c r="BL11" s="0" t="n">
-        <v>218958</v>
+        <v>220831</v>
       </c>
       <c r="BM11" s="0" t="n">
-        <v>475370</v>
+        <v>475636</v>
       </c>
       <c r="BN11" s="0" t="n">
-        <v>418764</v>
+        <v>418873</v>
       </c>
       <c r="BO11" s="0" t="n">
-        <v>215175</v>
+        <v>216168</v>
       </c>
       <c r="BP11" s="0" t="n">
-        <v>313947</v>
+        <v>316670</v>
       </c>
       <c r="BQ11" s="0" t="n">
-        <v>99526.1</v>
+        <v>100559</v>
       </c>
       <c r="BR11" s="0" t="n">
-        <v>138055</v>
+        <v>138889</v>
       </c>
       <c r="BS11" s="0" t="n">
-        <v>435519</v>
+        <v>434430</v>
       </c>
       <c r="BT11" s="0" t="n">
-        <v>280354</v>
+        <v>283601</v>
       </c>
       <c r="BU11" s="0" t="n">
-        <v>60002.2</v>
+        <v>60001.8</v>
       </c>
       <c r="BV11" s="0" t="n">
-        <v>129033</v>
+        <v>130059</v>
       </c>
       <c r="BW11" s="0" t="n">
-        <v>136070</v>
+        <v>133662</v>
       </c>
       <c r="BX11" s="0" t="n">
-        <v>221457</v>
+        <v>221752</v>
       </c>
       <c r="BY11" s="0" t="n">
-        <v>261431</v>
+        <v>262918</v>
       </c>
       <c r="BZ11" s="0" t="n">
-        <v>591776</v>
+        <v>593230</v>
       </c>
       <c r="CA11" s="0" t="n">
-        <v>511503</v>
+        <v>513869</v>
       </c>
       <c r="CB11" s="0" t="n">
-        <v>364338</v>
+        <v>366280</v>
       </c>
       <c r="CC11" s="0" t="n">
-        <v>26416.3</v>
+        <v>26632.7</v>
       </c>
       <c r="CD11" s="0" t="n">
-        <v>267050</v>
+        <v>264789</v>
       </c>
       <c r="CE11" s="0" t="n">
-        <v>433234</v>
+        <v>434645</v>
       </c>
       <c r="CF11" s="0" t="n">
-        <v>14217.7</v>
+        <v>13873</v>
       </c>
       <c r="CG11" s="0" t="n">
-        <v>248437</v>
+        <v>250218</v>
       </c>
       <c r="CH11" s="0" t="n">
-        <v>473729</v>
+        <v>475720</v>
       </c>
       <c r="CI11" s="0" t="n">
-        <v>9396.4</v>
+        <v>9115.12</v>
       </c>
       <c r="CJ11" s="0" t="n">
-        <v>229436</v>
+        <v>230663</v>
       </c>
       <c r="CK11" s="0" t="n">
-        <v>970382</v>
+        <v>971475</v>
       </c>
       <c r="CL11" s="0" t="n">
-        <v>475861</v>
+        <v>478666</v>
       </c>
       <c r="CM11" s="0" t="n">
-        <v>96670.5</v>
+        <v>96387.6</v>
       </c>
       <c r="CN11" s="0" t="n">
-        <v>857355</v>
+        <v>858786</v>
       </c>
       <c r="CO11" s="0" t="n">
-        <v>281072</v>
+        <v>281069</v>
       </c>
       <c r="CP11" s="0" t="n">
-        <v>701643</v>
+        <v>705765</v>
       </c>
       <c r="CQ11" s="0" t="n">
-        <v>704726</v>
+        <v>713201</v>
       </c>
       <c r="CR11" s="0" t="n">
-        <v>41046</v>
+        <v>41224.5</v>
       </c>
       <c r="CS11" s="0" t="n">
-        <v>739048</v>
+        <v>741921</v>
       </c>
       <c r="CT11" s="0" t="n">
-        <v>733672</v>
+        <v>739784</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,295 +3683,295 @@
         <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>195387</v>
+        <v>193356</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>84684.6</v>
+        <v>85315.4</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>197005</v>
+        <v>195110</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>221234</v>
+        <v>221579</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>228091</v>
+        <v>227391</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>77843.4</v>
+        <v>80260.1</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>12019.2</v>
+        <v>11594.5</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>68690.8</v>
+        <v>67100.2</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>231164</v>
+        <v>231233</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>26514.5</v>
+        <v>27201.3</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>20067.9</v>
+        <v>20344.8</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>54360</v>
+        <v>54404.6</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>4680.7</v>
+        <v>4669.66</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>52313.8</v>
+        <v>51489.2</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>60320.7</v>
+        <v>60349.2</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>38336.3</v>
+        <v>38659.1</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>16186.5</v>
+        <v>15858.6</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>21500.4</v>
+        <v>21001.4</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>37529</v>
+        <v>37743.9</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>93581.1</v>
+        <v>93832.5</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>89069.6</v>
+        <v>87135.3</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>104517</v>
+        <v>103461</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>36594.8</v>
+        <v>36634.1</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>103086</v>
+        <v>103271</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>59695.9</v>
+        <v>59814.3</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>19087.4</v>
+        <v>18323</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>56289</v>
+        <v>56206.5</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>59123.1</v>
+        <v>57172.6</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>73874.6</v>
+        <v>75091.7</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>144564</v>
+        <v>144565</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>188536</v>
+        <v>188522</v>
       </c>
       <c r="AG12" s="0" t="n">
-        <v>104580</v>
+        <v>105393</v>
       </c>
       <c r="AH12" s="0" t="n">
-        <v>69056.3</v>
+        <v>67993.2</v>
       </c>
       <c r="AI12" s="0" t="n">
-        <v>80308</v>
+        <v>79142.7</v>
       </c>
       <c r="AJ12" s="0" t="n">
-        <v>30572.1</v>
+        <v>30363.5</v>
       </c>
       <c r="AK12" s="0" t="n">
-        <v>147122</v>
+        <v>145558</v>
       </c>
       <c r="AL12" s="0" t="n">
-        <v>121306</v>
+        <v>120353</v>
       </c>
       <c r="AM12" s="0" t="n">
-        <v>22879.9</v>
+        <v>22779.7</v>
       </c>
       <c r="AN12" s="0" t="n">
-        <v>112942</v>
+        <v>113673</v>
       </c>
       <c r="AO12" s="0" t="n">
-        <v>367401</v>
+        <v>368770</v>
       </c>
       <c r="AP12" s="0" t="n">
-        <v>932657</v>
+        <v>932498</v>
       </c>
       <c r="AQ12" s="0" t="n">
-        <v>293296</v>
+        <v>290213</v>
       </c>
       <c r="AR12" s="0" t="n">
-        <v>30920.2</v>
+        <v>31143.4</v>
       </c>
       <c r="AS12" s="0" t="n">
-        <v>99710.1</v>
+        <v>98742.8</v>
       </c>
       <c r="AT12" s="0" t="n">
-        <v>779360</v>
+        <v>777158</v>
       </c>
       <c r="AU12" s="0" t="n">
-        <v>41897.2</v>
+        <v>42323.6</v>
       </c>
       <c r="AV12" s="0" t="n">
-        <v>700485</v>
+        <v>700307</v>
       </c>
       <c r="AW12" s="0" t="n">
-        <v>778051</v>
+        <v>777994</v>
       </c>
       <c r="AX12" s="0" t="n">
-        <v>638022</v>
+        <v>631181</v>
       </c>
       <c r="AY12" s="0" t="n">
-        <v>47736.4</v>
+        <v>47560.8</v>
       </c>
       <c r="AZ12" s="0" t="n">
-        <v>198739</v>
+        <v>199084</v>
       </c>
       <c r="BA12" s="0" t="n">
-        <v>236068</v>
+        <v>236224</v>
       </c>
       <c r="BB12" s="0" t="n">
-        <v>215923</v>
+        <v>216011</v>
       </c>
       <c r="BC12" s="0" t="n">
-        <v>185134</v>
+        <v>184792</v>
       </c>
       <c r="BD12" s="0" t="n">
-        <v>79652.9</v>
+        <v>79537.4</v>
       </c>
       <c r="BE12" s="0" t="n">
-        <v>58018.3</v>
+        <v>56746.3</v>
       </c>
       <c r="BF12" s="0" t="n">
-        <v>145815</v>
+        <v>145776</v>
       </c>
       <c r="BG12" s="0" t="n">
-        <v>47999.3</v>
+        <v>48238.5</v>
       </c>
       <c r="BH12" s="0" t="n">
-        <v>283219</v>
+        <v>283237</v>
       </c>
       <c r="BI12" s="0" t="n">
-        <v>365182</v>
+        <v>364566</v>
       </c>
       <c r="BJ12" s="0" t="n">
-        <v>205915</v>
+        <v>211075</v>
       </c>
       <c r="BK12" s="0" t="n">
-        <v>219876</v>
+        <v>222240</v>
       </c>
       <c r="BL12" s="0" t="n">
-        <v>220179</v>
+        <v>223598</v>
       </c>
       <c r="BM12" s="0" t="n">
-        <v>475510</v>
+        <v>475601</v>
       </c>
       <c r="BN12" s="0" t="n">
-        <v>418626</v>
+        <v>419133</v>
       </c>
       <c r="BO12" s="0" t="n">
-        <v>216609</v>
+        <v>218676</v>
       </c>
       <c r="BP12" s="0" t="n">
-        <v>315725</v>
+        <v>318014</v>
       </c>
       <c r="BQ12" s="0" t="n">
-        <v>100736</v>
+        <v>101916</v>
       </c>
       <c r="BR12" s="0" t="n">
-        <v>138977</v>
+        <v>139804</v>
       </c>
       <c r="BS12" s="0" t="n">
-        <v>439371</v>
+        <v>436694</v>
       </c>
       <c r="BT12" s="0" t="n">
-        <v>282833</v>
+        <v>285266</v>
       </c>
       <c r="BU12" s="0" t="n">
-        <v>60291.9</v>
+        <v>60266.9</v>
       </c>
       <c r="BV12" s="0" t="n">
-        <v>129988</v>
+        <v>131471</v>
       </c>
       <c r="BW12" s="0" t="n">
-        <v>137243</v>
+        <v>135222</v>
       </c>
       <c r="BX12" s="0" t="n">
-        <v>223058</v>
+        <v>224116</v>
       </c>
       <c r="BY12" s="0" t="n">
-        <v>263640</v>
+        <v>267484</v>
       </c>
       <c r="BZ12" s="0" t="n">
-        <v>591680</v>
+        <v>593140</v>
       </c>
       <c r="CA12" s="0" t="n">
-        <v>512583</v>
+        <v>515691</v>
       </c>
       <c r="CB12" s="0" t="n">
-        <v>365821</v>
+        <v>366712</v>
       </c>
       <c r="CC12" s="0" t="n">
-        <v>26721.7</v>
+        <v>26672.4</v>
       </c>
       <c r="CD12" s="0" t="n">
-        <v>269837</v>
+        <v>265999</v>
       </c>
       <c r="CE12" s="0" t="n">
-        <v>432881</v>
+        <v>433817</v>
       </c>
       <c r="CF12" s="0" t="n">
-        <v>14296.8</v>
+        <v>13981.3</v>
       </c>
       <c r="CG12" s="0" t="n">
-        <v>251076</v>
+        <v>251116</v>
       </c>
       <c r="CH12" s="0" t="n">
-        <v>473934</v>
+        <v>475385</v>
       </c>
       <c r="CI12" s="0" t="n">
-        <v>9412.18</v>
+        <v>9194.76</v>
       </c>
       <c r="CJ12" s="0" t="n">
-        <v>230156</v>
+        <v>232613</v>
       </c>
       <c r="CK12" s="0" t="n">
-        <v>970787</v>
+        <v>973413</v>
       </c>
       <c r="CL12" s="0" t="n">
-        <v>477112</v>
+        <v>480308</v>
       </c>
       <c r="CM12" s="0" t="n">
-        <v>97749.2</v>
+        <v>96851</v>
       </c>
       <c r="CN12" s="0" t="n">
-        <v>857581</v>
+        <v>858446</v>
       </c>
       <c r="CO12" s="0" t="n">
-        <v>283294</v>
+        <v>283259</v>
       </c>
       <c r="CP12" s="0" t="n">
-        <v>705581</v>
+        <v>707413</v>
       </c>
       <c r="CQ12" s="0" t="n">
-        <v>708503</v>
+        <v>714955</v>
       </c>
       <c r="CR12" s="0" t="n">
-        <v>41325.2</v>
+        <v>41503.5</v>
       </c>
       <c r="CS12" s="0" t="n">
-        <v>741363</v>
+        <v>743389</v>
       </c>
       <c r="CT12" s="0" t="n">
-        <v>735369</v>
+        <v>741099</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,295 +3979,295 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>195453</v>
+        <v>193345</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>84829.8</v>
+        <v>85310.2</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>197102</v>
+        <v>195509</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>221625</v>
+        <v>221846</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>228372</v>
+        <v>227772</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>78036.9</v>
+        <v>80424.9</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>12023.5</v>
+        <v>11619.4</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>68758.3</v>
+        <v>67118.8</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>231241</v>
+        <v>231366</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>26606</v>
+        <v>27246.7</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>20150.9</v>
+        <v>20409.4</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>54549</v>
+        <v>54746.8</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>4698.5</v>
+        <v>4671.38</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>52509.6</v>
+        <v>51539.4</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>60403.9</v>
+        <v>60327.5</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>38427.7</v>
+        <v>38685.2</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>16203</v>
+        <v>15914.6</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>21557.2</v>
+        <v>21091</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>37576.9</v>
+        <v>37743.9</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>93912.1</v>
+        <v>93895.7</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>89250.4</v>
+        <v>87299.3</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>104707</v>
+        <v>103732</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>36633.9</v>
+        <v>36724.8</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>103281</v>
+        <v>103634</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>59871.5</v>
+        <v>60176.8</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>19203</v>
+        <v>18339.5</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>56440</v>
+        <v>56464.8</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>59312.1</v>
+        <v>57441</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>73874.6</v>
+        <v>75180.9</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>144835</v>
+        <v>144875</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>188505</v>
+        <v>188525</v>
       </c>
       <c r="AG13" s="0" t="n">
-        <v>104753</v>
+        <v>105602</v>
       </c>
       <c r="AH13" s="0" t="n">
-        <v>69263.6</v>
+        <v>68405.6</v>
       </c>
       <c r="AI13" s="0" t="n">
-        <v>80682.1</v>
+        <v>79442.6</v>
       </c>
       <c r="AJ13" s="0" t="n">
-        <v>30561.8</v>
+        <v>30475.8</v>
       </c>
       <c r="AK13" s="0" t="n">
-        <v>147255</v>
+        <v>145715</v>
       </c>
       <c r="AL13" s="0" t="n">
-        <v>121799</v>
+        <v>120519</v>
       </c>
       <c r="AM13" s="0" t="n">
-        <v>23047.5</v>
+        <v>22906.4</v>
       </c>
       <c r="AN13" s="0" t="n">
-        <v>112946</v>
+        <v>114107</v>
       </c>
       <c r="AO13" s="0" t="n">
-        <v>370252</v>
+        <v>370662</v>
       </c>
       <c r="AP13" s="0" t="n">
-        <v>933018</v>
+        <v>933132</v>
       </c>
       <c r="AQ13" s="0" t="n">
-        <v>294835</v>
+        <v>291779</v>
       </c>
       <c r="AR13" s="0" t="n">
-        <v>31030</v>
+        <v>31275.2</v>
       </c>
       <c r="AS13" s="0" t="n">
-        <v>99925</v>
+        <v>98859.4</v>
       </c>
       <c r="AT13" s="0" t="n">
-        <v>779866</v>
+        <v>777983</v>
       </c>
       <c r="AU13" s="0" t="n">
-        <v>41876.6</v>
+        <v>42314.8</v>
       </c>
       <c r="AV13" s="0" t="n">
-        <v>701444</v>
+        <v>701386</v>
       </c>
       <c r="AW13" s="0" t="n">
-        <v>778775</v>
+        <v>778420</v>
       </c>
       <c r="AX13" s="0" t="n">
-        <v>639870</v>
+        <v>631309</v>
       </c>
       <c r="AY13" s="0" t="n">
-        <v>48018.3</v>
+        <v>47609.3</v>
       </c>
       <c r="AZ13" s="0" t="n">
-        <v>199156</v>
+        <v>199850</v>
       </c>
       <c r="BA13" s="0" t="n">
-        <v>236167</v>
+        <v>236583</v>
       </c>
       <c r="BB13" s="0" t="n">
-        <v>216727</v>
+        <v>217125</v>
       </c>
       <c r="BC13" s="0" t="n">
-        <v>185360</v>
+        <v>184893</v>
       </c>
       <c r="BD13" s="0" t="n">
-        <v>80039.4</v>
+        <v>79799.3</v>
       </c>
       <c r="BE13" s="0" t="n">
-        <v>58064.6</v>
+        <v>56839.3</v>
       </c>
       <c r="BF13" s="0" t="n">
-        <v>145810</v>
+        <v>146090</v>
       </c>
       <c r="BG13" s="0" t="n">
-        <v>48029.2</v>
+        <v>48327.4</v>
       </c>
       <c r="BH13" s="0" t="n">
-        <v>283714</v>
+        <v>283563</v>
       </c>
       <c r="BI13" s="0" t="n">
-        <v>365915</v>
+        <v>364908</v>
       </c>
       <c r="BJ13" s="0" t="n">
-        <v>206984</v>
+        <v>212298</v>
       </c>
       <c r="BK13" s="0" t="n">
-        <v>220452</v>
+        <v>222806</v>
       </c>
       <c r="BL13" s="0" t="n">
-        <v>220697</v>
+        <v>223984</v>
       </c>
       <c r="BM13" s="0" t="n">
-        <v>475809</v>
+        <v>475818</v>
       </c>
       <c r="BN13" s="0" t="n">
-        <v>419722</v>
+        <v>420109</v>
       </c>
       <c r="BO13" s="0" t="n">
-        <v>218405</v>
+        <v>219441</v>
       </c>
       <c r="BP13" s="0" t="n">
-        <v>316703</v>
+        <v>319383</v>
       </c>
       <c r="BQ13" s="0" t="n">
-        <v>101227</v>
+        <v>102357</v>
       </c>
       <c r="BR13" s="0" t="n">
-        <v>139390</v>
+        <v>139888</v>
       </c>
       <c r="BS13" s="0" t="n">
-        <v>441124</v>
+        <v>438186</v>
       </c>
       <c r="BT13" s="0" t="n">
-        <v>283071</v>
+        <v>287025</v>
       </c>
       <c r="BU13" s="0" t="n">
-        <v>60474.7</v>
+        <v>60476.2</v>
       </c>
       <c r="BV13" s="0" t="n">
-        <v>130763</v>
+        <v>131902</v>
       </c>
       <c r="BW13" s="0" t="n">
-        <v>137317</v>
+        <v>135681</v>
       </c>
       <c r="BX13" s="0" t="n">
-        <v>224243</v>
+        <v>226768</v>
       </c>
       <c r="BY13" s="0" t="n">
-        <v>264382</v>
+        <v>268165</v>
       </c>
       <c r="BZ13" s="0" t="n">
-        <v>592651</v>
+        <v>593830</v>
       </c>
       <c r="CA13" s="0" t="n">
-        <v>512563</v>
+        <v>516188</v>
       </c>
       <c r="CB13" s="0" t="n">
-        <v>365954</v>
+        <v>367848</v>
       </c>
       <c r="CC13" s="0" t="n">
-        <v>26922.8</v>
+        <v>26647.7</v>
       </c>
       <c r="CD13" s="0" t="n">
-        <v>270092</v>
+        <v>266789</v>
       </c>
       <c r="CE13" s="0" t="n">
-        <v>433701</v>
+        <v>434924</v>
       </c>
       <c r="CF13" s="0" t="n">
-        <v>14430.5</v>
+        <v>13983.6</v>
       </c>
       <c r="CG13" s="0" t="n">
-        <v>251730</v>
+        <v>251953</v>
       </c>
       <c r="CH13" s="0" t="n">
-        <v>474799</v>
+        <v>477163</v>
       </c>
       <c r="CI13" s="0" t="n">
-        <v>9425.8</v>
+        <v>9241.96</v>
       </c>
       <c r="CJ13" s="0" t="n">
-        <v>230333</v>
+        <v>233394</v>
       </c>
       <c r="CK13" s="0" t="n">
-        <v>976337</v>
+        <v>976753</v>
       </c>
       <c r="CL13" s="0" t="n">
-        <v>478315</v>
+        <v>481721</v>
       </c>
       <c r="CM13" s="0" t="n">
-        <v>98491.8</v>
+        <v>97451.6</v>
       </c>
       <c r="CN13" s="0" t="n">
-        <v>860432</v>
+        <v>859443</v>
       </c>
       <c r="CO13" s="0" t="n">
-        <v>284166</v>
+        <v>284722</v>
       </c>
       <c r="CP13" s="0" t="n">
-        <v>706824</v>
+        <v>707518</v>
       </c>
       <c r="CQ13" s="0" t="n">
-        <v>711727</v>
+        <v>715570</v>
       </c>
       <c r="CR13" s="0" t="n">
-        <v>41565.1</v>
+        <v>41619.4</v>
       </c>
       <c r="CS13" s="0" t="n">
-        <v>742566</v>
+        <v>743039</v>
       </c>
       <c r="CT13" s="0" t="n">
-        <v>735896</v>
+        <v>742266</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,295 +4275,295 @@
         <v>90</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>196282</v>
+        <v>193379</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>85761.9</v>
+        <v>86078.3</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>197280</v>
+        <v>195574</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>221701</v>
+        <v>222027</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>228546</v>
+        <v>227956</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>79048.1</v>
+        <v>81268.2</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>12026.7</v>
+        <v>11664.5</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>69447.3</v>
+        <v>67246.7</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>231298</v>
+        <v>231349</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>26754.7</v>
+        <v>27403.1</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>20271.3</v>
+        <v>20658.9</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>54367.1</v>
+        <v>54579.3</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>4733.36</v>
+        <v>4699.82</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>52705.9</v>
+        <v>51755.7</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>60391.2</v>
+        <v>60408.2</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>38487.1</v>
+        <v>38876.1</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>16278.9</v>
+        <v>15989.4</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>21654.1</v>
+        <v>21266.3</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>37827.3</v>
+        <v>37944.5</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>95169.3</v>
+        <v>94608</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>89520.5</v>
+        <v>87864.2</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>104739</v>
+        <v>103488</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>37071.8</v>
+        <v>36876.7</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>103265</v>
+        <v>103477</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>60254.8</v>
+        <v>60422.4</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>19350.4</v>
+        <v>18444.1</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>56747.5</v>
+        <v>57051.3</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>59952.2</v>
+        <v>58392.5</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>74110.2</v>
+        <v>75565.5</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>145691</v>
+        <v>145164</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>188505</v>
+        <v>188548</v>
       </c>
       <c r="AG14" s="0" t="n">
-        <v>105268</v>
+        <v>106565</v>
       </c>
       <c r="AH14" s="0" t="n">
-        <v>69572.7</v>
+        <v>68629</v>
       </c>
       <c r="AI14" s="0" t="n">
-        <v>81229.5</v>
+        <v>80267.9</v>
       </c>
       <c r="AJ14" s="0" t="n">
-        <v>30802.3</v>
+        <v>30751.4</v>
       </c>
       <c r="AK14" s="0" t="n">
-        <v>147292</v>
+        <v>145600</v>
       </c>
       <c r="AL14" s="0" t="n">
-        <v>122291</v>
+        <v>121159</v>
       </c>
       <c r="AM14" s="0" t="n">
-        <v>23244.5</v>
+        <v>23012.5</v>
       </c>
       <c r="AN14" s="0" t="n">
-        <v>113541</v>
+        <v>114445</v>
       </c>
       <c r="AO14" s="0" t="n">
-        <v>374489</v>
+        <v>372691</v>
       </c>
       <c r="AP14" s="0" t="n">
-        <v>933207</v>
+        <v>933325</v>
       </c>
       <c r="AQ14" s="0" t="n">
-        <v>295993</v>
+        <v>293449</v>
       </c>
       <c r="AR14" s="0" t="n">
-        <v>31343.2</v>
+        <v>31482.1</v>
       </c>
       <c r="AS14" s="0" t="n">
-        <v>100169</v>
+        <v>99451.5</v>
       </c>
       <c r="AT14" s="0" t="n">
-        <v>779934</v>
+        <v>778068</v>
       </c>
       <c r="AU14" s="0" t="n">
-        <v>42040.2</v>
+        <v>42517.5</v>
       </c>
       <c r="AV14" s="0" t="n">
-        <v>705149</v>
+        <v>701314</v>
       </c>
       <c r="AW14" s="0" t="n">
-        <v>778746</v>
+        <v>778188</v>
       </c>
       <c r="AX14" s="0" t="n">
-        <v>645704</v>
+        <v>633881</v>
       </c>
       <c r="AY14" s="0" t="n">
-        <v>48174.1</v>
+        <v>48111.1</v>
       </c>
       <c r="AZ14" s="0" t="n">
-        <v>199180</v>
+        <v>199300</v>
       </c>
       <c r="BA14" s="0" t="n">
-        <v>236214</v>
+        <v>236337</v>
       </c>
       <c r="BB14" s="0" t="n">
-        <v>216700</v>
+        <v>216648</v>
       </c>
       <c r="BC14" s="0" t="n">
-        <v>185574</v>
+        <v>185232</v>
       </c>
       <c r="BD14" s="0" t="n">
-        <v>80940.9</v>
+        <v>80891.6</v>
       </c>
       <c r="BE14" s="0" t="n">
-        <v>58764.3</v>
+        <v>57457.7</v>
       </c>
       <c r="BF14" s="0" t="n">
-        <v>147472</v>
+        <v>147391</v>
       </c>
       <c r="BG14" s="0" t="n">
-        <v>48339.9</v>
+        <v>48761.3</v>
       </c>
       <c r="BH14" s="0" t="n">
-        <v>285776</v>
+        <v>286726</v>
       </c>
       <c r="BI14" s="0" t="n">
-        <v>366284</v>
+        <v>364884</v>
       </c>
       <c r="BJ14" s="0" t="n">
-        <v>208770</v>
+        <v>213380</v>
       </c>
       <c r="BK14" s="0" t="n">
-        <v>222467</v>
+        <v>224812</v>
       </c>
       <c r="BL14" s="0" t="n">
-        <v>223843</v>
+        <v>224542</v>
       </c>
       <c r="BM14" s="0" t="n">
-        <v>475699</v>
+        <v>475714</v>
       </c>
       <c r="BN14" s="0" t="n">
-        <v>419372</v>
+        <v>420009</v>
       </c>
       <c r="BO14" s="0" t="n">
-        <v>221419</v>
+        <v>222116</v>
       </c>
       <c r="BP14" s="0" t="n">
-        <v>318339</v>
+        <v>320467</v>
       </c>
       <c r="BQ14" s="0" t="n">
-        <v>102330</v>
+        <v>103673</v>
       </c>
       <c r="BR14" s="0" t="n">
-        <v>140753</v>
+        <v>141002</v>
       </c>
       <c r="BS14" s="0" t="n">
-        <v>444910</v>
+        <v>441788</v>
       </c>
       <c r="BT14" s="0" t="n">
-        <v>285144</v>
+        <v>291903</v>
       </c>
       <c r="BU14" s="0" t="n">
-        <v>60955.2</v>
+        <v>60843.4</v>
       </c>
       <c r="BV14" s="0" t="n">
-        <v>131846</v>
+        <v>133267</v>
       </c>
       <c r="BW14" s="0" t="n">
-        <v>138160</v>
+        <v>136670</v>
       </c>
       <c r="BX14" s="0" t="n">
-        <v>227619</v>
+        <v>227821</v>
       </c>
       <c r="BY14" s="0" t="n">
-        <v>265661</v>
+        <v>269042</v>
       </c>
       <c r="BZ14" s="0" t="n">
-        <v>592738</v>
+        <v>593260</v>
       </c>
       <c r="CA14" s="0" t="n">
-        <v>515171</v>
+        <v>516781</v>
       </c>
       <c r="CB14" s="0" t="n">
-        <v>367290</v>
+        <v>368560</v>
       </c>
       <c r="CC14" s="0" t="n">
-        <v>26923.4</v>
+        <v>26948.7</v>
       </c>
       <c r="CD14" s="0" t="n">
-        <v>271884</v>
+        <v>269052</v>
       </c>
       <c r="CE14" s="0" t="n">
-        <v>433500</v>
+        <v>434419</v>
       </c>
       <c r="CF14" s="0" t="n">
-        <v>14476.4</v>
+        <v>14087.1</v>
       </c>
       <c r="CG14" s="0" t="n">
-        <v>253566</v>
+        <v>253759</v>
       </c>
       <c r="CH14" s="0" t="n">
-        <v>474713</v>
+        <v>476929</v>
       </c>
       <c r="CI14" s="0" t="n">
-        <v>9475.48</v>
+        <v>9314.6</v>
       </c>
       <c r="CJ14" s="0" t="n">
-        <v>232757</v>
+        <v>235650</v>
       </c>
       <c r="CK14" s="0" t="n">
-        <v>977765</v>
+        <v>977632</v>
       </c>
       <c r="CL14" s="0" t="n">
-        <v>485040</v>
+        <v>484384</v>
       </c>
       <c r="CM14" s="0" t="n">
-        <v>99392.9</v>
+        <v>98276.5</v>
       </c>
       <c r="CN14" s="0" t="n">
-        <v>860354</v>
+        <v>859304</v>
       </c>
       <c r="CO14" s="0" t="n">
-        <v>287477</v>
+        <v>287505</v>
       </c>
       <c r="CP14" s="0" t="n">
-        <v>709490</v>
+        <v>708419</v>
       </c>
       <c r="CQ14" s="0" t="n">
-        <v>714108</v>
+        <v>717399</v>
       </c>
       <c r="CR14" s="0" t="n">
-        <v>41845.5</v>
+        <v>41700.8</v>
       </c>
       <c r="CS14" s="0" t="n">
-        <v>744805</v>
+        <v>744039</v>
       </c>
       <c r="CT14" s="0" t="n">
-        <v>738568</v>
+        <v>742705</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,295 +4571,295 @@
         <v>100</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>196222</v>
+        <v>193278</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>85804.6</v>
+        <v>86080.4</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>197299</v>
+        <v>195533</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>221840</v>
+        <v>222260</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>228515</v>
+        <v>228096</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>78946.1</v>
+        <v>81270.7</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>12023.7</v>
+        <v>11665.4</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>69447.4</v>
+        <v>67239.6</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>231366</v>
+        <v>231391</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>26754.7</v>
+        <v>27403.1</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>20270.2</v>
+        <v>20658.9</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>54421.3</v>
+        <v>54571</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>4733.36</v>
+        <v>4699.82</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>52705.9</v>
+        <v>51768.2</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>60341.4</v>
+        <v>60403.2</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>38487.1</v>
+        <v>38876.1</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>16278.9</v>
+        <v>15987.6</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>21660</v>
+        <v>21279</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>37827.3</v>
+        <v>37944.5</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>95169.3</v>
+        <v>94603.5</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>89520.5</v>
+        <v>87843.6</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>104676</v>
+        <v>103493</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>37063</v>
+        <v>36840.1</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>103236</v>
+        <v>103273</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>60278.4</v>
+        <v>60423.2</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>19350.4</v>
+        <v>18454.9</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>56776.2</v>
+        <v>57048.7</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>59952.2</v>
+        <v>58401.1</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>74110.2</v>
+        <v>75565.5</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>145674</v>
+        <v>145106</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>188541</v>
+        <v>188549</v>
       </c>
       <c r="AG15" s="0" t="n">
-        <v>105268</v>
+        <v>106565</v>
       </c>
       <c r="AH15" s="0" t="n">
-        <v>69572.7</v>
+        <v>68629</v>
       </c>
       <c r="AI15" s="0" t="n">
-        <v>81229.5</v>
+        <v>80286.6</v>
       </c>
       <c r="AJ15" s="0" t="n">
-        <v>30790.8</v>
+        <v>30729.1</v>
       </c>
       <c r="AK15" s="0" t="n">
-        <v>147244</v>
+        <v>145639</v>
       </c>
       <c r="AL15" s="0" t="n">
-        <v>122291</v>
+        <v>121159</v>
       </c>
       <c r="AM15" s="0" t="n">
-        <v>23231.4</v>
+        <v>23017.5</v>
       </c>
       <c r="AN15" s="0" t="n">
-        <v>113541</v>
+        <v>114445</v>
       </c>
       <c r="AO15" s="0" t="n">
-        <v>374744</v>
+        <v>372721</v>
       </c>
       <c r="AP15" s="0" t="n">
-        <v>933167</v>
+        <v>933337</v>
       </c>
       <c r="AQ15" s="0" t="n">
-        <v>296048</v>
+        <v>293748</v>
       </c>
       <c r="AR15" s="0" t="n">
-        <v>31353.1</v>
+        <v>31481.5</v>
       </c>
       <c r="AS15" s="0" t="n">
-        <v>100295</v>
+        <v>99575.2</v>
       </c>
       <c r="AT15" s="0" t="n">
-        <v>779906</v>
+        <v>777969</v>
       </c>
       <c r="AU15" s="0" t="n">
-        <v>41995.7</v>
+        <v>42520.2</v>
       </c>
       <c r="AV15" s="0" t="n">
-        <v>705253</v>
+        <v>701480</v>
       </c>
       <c r="AW15" s="0" t="n">
-        <v>778970</v>
+        <v>777789</v>
       </c>
       <c r="AX15" s="0" t="n">
-        <v>645715</v>
+        <v>633923</v>
       </c>
       <c r="AY15" s="0" t="n">
-        <v>48165.9</v>
+        <v>48120</v>
       </c>
       <c r="AZ15" s="0" t="n">
-        <v>198951</v>
+        <v>198899</v>
       </c>
       <c r="BA15" s="0" t="n">
-        <v>236354</v>
+        <v>236426</v>
       </c>
       <c r="BB15" s="0" t="n">
-        <v>216549</v>
+        <v>216748</v>
       </c>
       <c r="BC15" s="0" t="n">
-        <v>185409</v>
+        <v>185178</v>
       </c>
       <c r="BD15" s="0" t="n">
-        <v>80940.9</v>
+        <v>80891.6</v>
       </c>
       <c r="BE15" s="0" t="n">
-        <v>58799</v>
+        <v>57450.4</v>
       </c>
       <c r="BF15" s="0" t="n">
-        <v>147438</v>
+        <v>147487</v>
       </c>
       <c r="BG15" s="0" t="n">
-        <v>48339.7</v>
+        <v>48778.9</v>
       </c>
       <c r="BH15" s="0" t="n">
-        <v>285861</v>
+        <v>286772</v>
       </c>
       <c r="BI15" s="0" t="n">
-        <v>366134</v>
+        <v>364874</v>
       </c>
       <c r="BJ15" s="0" t="n">
-        <v>208770</v>
+        <v>213516</v>
       </c>
       <c r="BK15" s="0" t="n">
-        <v>222584</v>
+        <v>224909</v>
       </c>
       <c r="BL15" s="0" t="n">
-        <v>223861</v>
+        <v>224699</v>
       </c>
       <c r="BM15" s="0" t="n">
-        <v>475757</v>
+        <v>475887</v>
       </c>
       <c r="BN15" s="0" t="n">
-        <v>419063</v>
+        <v>419732</v>
       </c>
       <c r="BO15" s="0" t="n">
-        <v>221433</v>
+        <v>222207</v>
       </c>
       <c r="BP15" s="0" t="n">
-        <v>318357</v>
+        <v>320471</v>
       </c>
       <c r="BQ15" s="0" t="n">
-        <v>102355</v>
+        <v>103746</v>
       </c>
       <c r="BR15" s="0" t="n">
-        <v>140926</v>
+        <v>141226</v>
       </c>
       <c r="BS15" s="0" t="n">
-        <v>445187</v>
+        <v>442019</v>
       </c>
       <c r="BT15" s="0" t="n">
-        <v>285156</v>
+        <v>291931</v>
       </c>
       <c r="BU15" s="0" t="n">
-        <v>61018.3</v>
+        <v>61003.1</v>
       </c>
       <c r="BV15" s="0" t="n">
-        <v>131861</v>
+        <v>133270</v>
       </c>
       <c r="BW15" s="0" t="n">
-        <v>138178</v>
+        <v>136825</v>
       </c>
       <c r="BX15" s="0" t="n">
-        <v>227683</v>
+        <v>227827</v>
       </c>
       <c r="BY15" s="0" t="n">
-        <v>265684</v>
+        <v>269064</v>
       </c>
       <c r="BZ15" s="0" t="n">
-        <v>592168</v>
+        <v>593002</v>
       </c>
       <c r="CA15" s="0" t="n">
-        <v>515290</v>
+        <v>516889</v>
       </c>
       <c r="CB15" s="0" t="n">
-        <v>367659</v>
+        <v>368637</v>
       </c>
       <c r="CC15" s="0" t="n">
-        <v>26913.8</v>
+        <v>26964.6</v>
       </c>
       <c r="CD15" s="0" t="n">
-        <v>271884</v>
+        <v>269216</v>
       </c>
       <c r="CE15" s="0" t="n">
-        <v>433177</v>
+        <v>434196</v>
       </c>
       <c r="CF15" s="0" t="n">
-        <v>14527.3</v>
+        <v>14168.4</v>
       </c>
       <c r="CG15" s="0" t="n">
-        <v>253789</v>
+        <v>253874</v>
       </c>
       <c r="CH15" s="0" t="n">
-        <v>474498</v>
+        <v>476069</v>
       </c>
       <c r="CI15" s="0" t="n">
-        <v>9490.04</v>
+        <v>9319.7</v>
       </c>
       <c r="CJ15" s="0" t="n">
-        <v>232866</v>
+        <v>235810</v>
       </c>
       <c r="CK15" s="0" t="n">
-        <v>977761</v>
+        <v>977598</v>
       </c>
       <c r="CL15" s="0" t="n">
-        <v>485440</v>
+        <v>484750</v>
       </c>
       <c r="CM15" s="0" t="n">
-        <v>99473.2</v>
+        <v>98342</v>
       </c>
       <c r="CN15" s="0" t="n">
-        <v>860121</v>
+        <v>858991</v>
       </c>
       <c r="CO15" s="0" t="n">
-        <v>287826</v>
+        <v>287778</v>
       </c>
       <c r="CP15" s="0" t="n">
-        <v>709594</v>
+        <v>708917</v>
       </c>
       <c r="CQ15" s="0" t="n">
-        <v>714331</v>
+        <v>717413</v>
       </c>
       <c r="CR15" s="0" t="n">
-        <v>41947.9</v>
+        <v>41752.5</v>
       </c>
       <c r="CS15" s="0" t="n">
-        <v>745026</v>
+        <v>744362</v>
       </c>
       <c r="CT15" s="0" t="n">
-        <v>738623</v>
+        <v>742837</v>
       </c>
     </row>
   </sheetData>
